--- a/InputData/elec/EIaE/Elec Imports and Exports.xlsx
+++ b/InputData/elec/EIaE/Elec Imports and Exports.xlsx
@@ -1,36 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-india-wipB5\InputData\elec\EIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\EIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D190219-256B-4FB1-A8E9-F208FA851CB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="23955" windowHeight="13365"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="9" r:id="rId2"/>
-    <sheet name="EIaE-BIE" sheetId="3" r:id="rId3"/>
-    <sheet name="EIaE-BEE" sheetId="5" r:id="rId4"/>
+    <sheet name="Data from 1.4.3" sheetId="9" r:id="rId2"/>
+    <sheet name="Comparisons" sheetId="10" r:id="rId3"/>
+    <sheet name="IRADe-BBIN study" sheetId="11" r:id="rId4"/>
+    <sheet name="EIaE-BIE" sheetId="3" r:id="rId5"/>
+    <sheet name="EIaE-BEE" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="BTU_per_kWh">[1]About!$A$163</definedName>
     <definedName name="HHV_Adjust">[1]About!$A$160</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
   <si>
     <t>EIaE BAU Imported Electricity</t>
   </si>
@@ -84,16 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                   13th  Plan (2021‐22)</t>
-  </si>
-  <si>
-    <t>14th  Plan
-(Scenario‐I /Scenario‐II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15th  Plan 
-(Scenario‐I / 
-Scenario‐II) 
-</t>
   </si>
   <si>
     <t>2033-34</t>
@@ -206,18 +207,12 @@
     <t>http://www.cea.nic.in/reports/committee/scm/allindia/notices/3rd_briefnote.pdf</t>
   </si>
   <si>
-    <t>TABLE 1:Maximum Import/ Export of different Regions / SAARC Countri</t>
-  </si>
-  <si>
     <t>Past data on exports and imports of electricity</t>
   </si>
   <si>
     <t>Ministry of Statistics and Programme Implementation</t>
   </si>
   <si>
-    <t>ENERGY STATISTICS 2018</t>
-  </si>
-  <si>
     <t>Table 4.1</t>
   </si>
   <si>
@@ -227,20 +222,274 @@
     <t>The projections of imports and exports based on historical numbers were considered impractical because of the changes in the sector in the time period.</t>
   </si>
   <si>
-    <t>The trends in electricity export and import till 2033 were extrapolated as per the MW demand projections provided by Central Electiricity Authority</t>
-  </si>
-  <si>
-    <t>Post 2033, they are assumed to be constant due to lack of further data</t>
+    <t>14th  Plan
+(Scenario‐I /Scenario‐II)
+(2026-27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15th  Plan 
+(Scenario‐I / 
+Scenario‐II) 
+(2031-32)
+</t>
+  </si>
+  <si>
+    <t>ENERGY STATISTICS 2018, 2019</t>
+  </si>
+  <si>
+    <t>http://www.mospi.gov.in/sites/default/files/publication_reports/Energy%20Statistics%202019-finall.pdf</t>
+  </si>
+  <si>
+    <t>imp</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>exports</t>
+  </si>
+  <si>
+    <t>CEA-based projections</t>
+  </si>
+  <si>
+    <t>IESS LEVEL 2 GW trajectories-----&gt;</t>
+  </si>
+  <si>
+    <t>CAGR (2047-2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IESS-based projections </t>
+  </si>
+  <si>
+    <t>TABLE :Maximum Import/ Export of different Regions / SAARC Countries</t>
+  </si>
+  <si>
+    <t>For comparison only, not used</t>
+  </si>
+  <si>
+    <t>Imported Electricity (MW*hour)</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Exported Electricity (MW*hour)</t>
+  </si>
+  <si>
+    <t>Only hydro is considered for imports as India has only hydroelectricity contracts with neighbouring countries.</t>
+  </si>
+  <si>
+    <t>In IESS based projections, imports grow more than exports over time.</t>
+  </si>
+  <si>
+    <t>We need to know the mix of imported electricity types if we will be including</t>
+  </si>
+  <si>
+    <t>pollutant emissions associated with imported electricity into the totals, which</t>
+  </si>
+  <si>
+    <t>is managed by a control lever.  If these emissions will not be included in the</t>
+  </si>
+  <si>
+    <t>emissions totals, the breakdown is unimportant, and you may assign all</t>
+  </si>
+  <si>
+    <t>imported electricity emissions to any one electricity source, if you prefer.</t>
+  </si>
+  <si>
+    <t>Electricity exports are supplied by power plants in the modeled region and</t>
+  </si>
+  <si>
+    <t>hence do not need their electricity source to be specified here.</t>
+  </si>
+  <si>
+    <t>Table 4.3 India’s Trade Potential with Bangladesh, Bhutan and Nepal (in GWh)</t>
+  </si>
+  <si>
+    <t>India’s Exports to (in GWh)</t>
+  </si>
+  <si>
+    <t>India’s Imports from (in GWh)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>CAGR 2015-45</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Interpolated</t>
+  </si>
+  <si>
+    <t>Total Hydro 
+Imports (MWh)</t>
+  </si>
+  <si>
+    <t>Exports 
+(MWh)</t>
+  </si>
+  <si>
+    <t>IRADe projections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 1.4.3 version of EPS-India, trends in electricity export and import till 2033 (as per the MW demand projections provided by CEA) </t>
+  </si>
+  <si>
+    <t>The 1.4.3v calculations are retained here for reference only.</t>
+  </si>
+  <si>
+    <t>In the current version, we use the projections from a study which uses an integrated least-cost modelling</t>
+  </si>
+  <si>
+    <t>Data for v1.4.3</t>
+  </si>
+  <si>
+    <t>were applied to actual present GWh values from MoSPI. Post 2033, they were assumed to be constant due to lack of further data.</t>
+  </si>
+  <si>
+    <t>The projections based on trends in IESS Level 2 trajectories are presented for comparison, but not used.</t>
+  </si>
+  <si>
+    <t>Projections from v1.4.3 of EPS India:</t>
+  </si>
+  <si>
+    <t>in the BBIN (Bangladesh-Bhutan-India-Nepal) region. The study builds on the import capacity and capacity factor</t>
+  </si>
+  <si>
+    <r>
+      <t>Hydro Imports (MWh)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exports (MWh)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Post 2045, imports are held constant as Bhutan imports flatten out from 2035</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Post 2045, exports are assumed to continue as per the trend in 2040-45</t>
+    </r>
+  </si>
+  <si>
+    <t>approach to estimate the optimal economic trade potential that can be achieved in a multilateral trading agreement</t>
+  </si>
+  <si>
+    <t>Data for v2.1</t>
+  </si>
+  <si>
+    <t>Projections for Import and Exports</t>
+  </si>
+  <si>
+    <t>Gains from Multilateral Electricity Trade among BBIN countries</t>
+  </si>
+  <si>
+    <t>https://irade.org/Gains%20from%20Multilateral%20Electricity%20Trade%20among%20BBIN%20Country.pdf</t>
+  </si>
+  <si>
+    <t>Table 4.3, page 9</t>
+  </si>
+  <si>
+    <t>IRADe, USAID - South Asia Regional Initiative for Energy Integration (SARI/EI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from Bhutan in CEA's NEP. </t>
+  </si>
+  <si>
+    <t>Source: IRADe-USAID (SARI/EI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +546,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +603,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -368,6 +660,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -392,7 +791,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,19 +820,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 2 2" xfId="8"/>
-    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,6 +896,3662 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>CEA-based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>imp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparisons!$B$3:$AI$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$B$4:$AI$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>9913400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12369600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14825800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17282000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31191600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45101200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59010800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72920400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86830000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103390000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119950000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136510000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153070000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>169630000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179189200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188748400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198307600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>207866800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>217426000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>222827400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228228800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>233630200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>239031600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244433000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246359000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248285000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250211000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252137000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>254063000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81C0-4ABA-898A-E7A1FF765472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$B$5:$AI$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7123600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8231400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9339200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10447000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13616400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16785800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19955200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23124600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26294000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26614400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26934800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27255200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27575600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27896000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32473800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37051600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41629400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46207200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50785000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55233000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59681000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64129000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68577000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73025000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>79306800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85588600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91870400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98152200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104434000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>110715800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>116997600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>123279400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>129561200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>135843000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-81C0-4ABA-898A-E7A1FF765472}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1029588720"/>
+        <c:axId val="1109794176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1029588720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1109794176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1109794176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029588720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>IESS-based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparisons!$B$3:$AI$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$B$33:$AI$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>5611000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6027903.8829422183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6475784.2135073729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6956942.5780960638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7473851.5736787226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8029167.5140815862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8625744.080364624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9266646.9854385611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9955169.7282801475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10694850.518704105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11489490.45966549</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12343173.080528459</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13260285.321679799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14245540.078323893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15304000.419308072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16441105.605435122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17662699.040966932</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18975058.301957648</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20384927.395727232</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21899551.417251714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23526713.780563958</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25274776.216491122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27152721.74227098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>29170200.823861137</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31337580.968161974</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33665999.999999955</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36167423.297653265</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38854705.2810442</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41741655.468576342</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44843109.442072287</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48175005.084489465</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51754464.482187696</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>55599881.912631318</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59731018.369680829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>imp</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4642-4BEF-975A-9CA5CE0616FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$B$34:$AI$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7203000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7491213.3172172625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7790958.9010208622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8102698.1914785299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8426911.0922388174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8764096.709313523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9114774.1194209978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9479483.1690731402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9858785.3056362085</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10253264.441644847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10663527.853699861</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11090207.117333557</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11533959.079281801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11995466.868659558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12475440.948596548</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12974620.209951969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13493773.108791951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14033698.849380877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14595228.614507651</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15179226.845040979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15786592.570683433</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16418260.793972906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17075203.929662071</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17758433.301691666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18469000.700062074</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19207999.999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19976568.845912699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20775890.402722295</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21607195.177276075</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22471762.912636843</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23370924.558169387</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24306064.318455987</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25278621.784195036</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26290094.148363218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>exp</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4642-4BEF-975A-9CA5CE0616FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1029588720"/>
+        <c:axId val="1109794176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1029588720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1109794176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1109794176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029588720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>IRADe-based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>imp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Comparisons!$B$3:$AI$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$B$37:$AI$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>9913400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12369600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14825800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17282000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31191600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45101200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59010800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72920400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>86830000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103390000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119950000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136510000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153070000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>169630000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179189200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188748400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198307600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>207866800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>217426000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>222827400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>228228800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>233630200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>239031600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>244433000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246359000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>248285000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250211000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252137000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>254063000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>254063000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C994-434C-B977-2F1B33FFA04A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$B$38:$AI$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>7123600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8231400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9339200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10447000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13616400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16785800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19955200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23124600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26294000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26614400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26934800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27255200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27575600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27896000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32473800</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37051600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41629400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46207200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50785000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55233000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59681000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64129000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68577000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73025000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>79306800</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85588600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>91870400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>98152200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104434000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>110715800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>116997600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>123279400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>129561200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>135843000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C994-434C-B977-2F1B33FFA04A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1029588720"/>
+        <c:axId val="1109794176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1029588720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1109794176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1109794176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029588720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -460,12 +4564,18 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>155302</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Shot 2018-04-13 at 5.06.54 am.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Screen Shot 2018-04-13 at 5.06.54 am.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -504,12 +4614,18 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>586530</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Shot 2018-04-13 at 10.23.18 pm.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Screen Shot 2018-04-13 at 10.23.18 pm.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -536,6 +4652,167 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>562727</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>153055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3251513-2E7F-4250-B306-F1F52D834648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18630900" y="219075"/>
+          <a:ext cx="5391902" cy="4696480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E032CF0C-7B83-469B-BB2B-9C3CFA66BE95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10587AA1-6EEF-4608-A487-C4867FFB7C40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133C64E1-5B0C-4A67-8BF2-9B3906253263}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -680,6 +4957,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -715,6 +5009,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -890,117 +5201,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{A7B237D3-DE0F-463C-AB5E-18E3F8C336D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1009,48 +5429,48 @@
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1059,7 +5479,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1068,7 +5488,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1077,7 +5497,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1086,7 +5506,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1095,7 +5515,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <f>500+1500+500</f>
@@ -1112,7 +5532,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <f>1400+10000</f>
@@ -1129,15 +5549,15 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1282,12 +5702,12 @@
         <v>2015</v>
       </c>
       <c r="M31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>2957</v>
@@ -1329,7 +5749,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>216</v>
@@ -1372,34 +5792,34 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>26500</v>
@@ -1423,10 +5843,10 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>50100</v>
@@ -1442,10 +5862,10 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>55500</v>
@@ -1551,7 +5971,7 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>2957</v>
@@ -1587,77 +6007,76 @@
         <v>5617</v>
       </c>
       <c r="M45">
-        <f t="shared" ref="M45:AC45" si="0">L45*(1+$G$40/100)</f>
-        <v>5887.3034616471359</v>
+        <v>5611</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
-        <v>6170.6145717504623</v>
+        <f t="shared" ref="N45:AC45" si="0">M45*(1+$G$40/100)</f>
+        <v>5881.0147273103221</v>
       </c>
       <c r="O45">
         <f t="shared" si="0"/>
-        <v>6467.5592894350639</v>
+        <v>6164.0232084906256</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>6778.7936964748333</v>
+        <v>6460.6507340253056</v>
       </c>
       <c r="Q45">
         <f t="shared" si="0"/>
-        <v>7105.0054468663111</v>
+        <v>6771.5526848709787</v>
       </c>
       <c r="R45">
         <f t="shared" si="0"/>
-        <v>7446.9152861594775</v>
+        <v>7097.4159804819064</v>
       </c>
       <c r="S45">
         <f t="shared" si="0"/>
-        <v>7805.2786439023785</v>
+        <v>7438.9605965178616</v>
       </c>
       <c r="T45">
         <f t="shared" si="0"/>
-        <v>8180.887302717987</v>
+        <v>7796.9411555877241</v>
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
-        <v>8574.5711477010336</v>
+        <v>8172.1485945434624</v>
       </c>
       <c r="V45">
         <f t="shared" si="0"/>
-        <v>8987.1999999999916</v>
+        <v>8565.4119120082778</v>
       </c>
       <c r="W45">
         <f t="shared" si="0"/>
-        <v>9419.6855386354091</v>
+        <v>8977.5999999999894</v>
       </c>
       <c r="X45">
         <f t="shared" si="0"/>
-        <v>9872.983314800731</v>
+        <v>9409.6235636965048</v>
       </c>
       <c r="Y45">
         <f t="shared" si="0"/>
-        <v>10348.094863096094</v>
+        <v>9862.4371335849901</v>
       </c>
       <c r="Z45">
         <f t="shared" si="0"/>
-        <v>10846.069914359725</v>
+        <v>10337.041174440479</v>
       </c>
       <c r="AA45">
         <f t="shared" si="0"/>
-        <v>11368.008714986088</v>
+        <v>10834.484295793556</v>
       </c>
       <c r="AB45">
         <f t="shared" si="0"/>
-        <v>11915.064457855155</v>
+        <v>11355.86556877104</v>
       </c>
       <c r="AC45" s="13">
         <f t="shared" si="0"/>
-        <v>12488.445830243796</v>
+        <v>11902.336954428567</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>216</v>
@@ -1693,88 +6112,87 @@
         <v>6710</v>
       </c>
       <c r="M46">
-        <f t="shared" ref="M46:AC46" si="1">L46*(1+$I$40/100)</f>
-        <v>7802.1223763131811</v>
+        <v>7203</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
-        <v>9071.9990424689786</v>
+        <f t="shared" ref="N46:AC46" si="1">M46*(1+$I$40/100)</f>
+        <v>8375.363260295655</v>
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>10548.561360229356</v>
+        <v>9738.5408499111854</v>
       </c>
       <c r="P46">
         <f t="shared" si="1"/>
-        <v>12265.449571767223</v>
+        <v>11323.589788037563</v>
       </c>
       <c r="Q46">
         <f t="shared" si="1"/>
-        <v>14261.779218990459</v>
+        <v>13166.621947159359</v>
       </c>
       <c r="R46">
         <f t="shared" si="1"/>
-        <v>16583.03230559222</v>
+        <v>15309.626783068297</v>
       </c>
       <c r="S46">
         <f t="shared" si="1"/>
-        <v>19282.093505005279</v>
+        <v>17801.427972754209</v>
       </c>
       <c r="T46">
         <f t="shared" si="1"/>
-        <v>22420.455021991766</v>
+        <v>20698.795755074963</v>
       </c>
       <c r="U46">
         <f t="shared" si="1"/>
-        <v>26069.617558003756</v>
+        <v>24067.740316454048</v>
       </c>
       <c r="V46">
         <f t="shared" si="1"/>
-        <v>30312.719298245618</v>
+        <v>27985.015688569452</v>
       </c>
       <c r="W46">
         <f t="shared" si="1"/>
-        <v>35246.430033344637</v>
+        <v>32539.868421052633</v>
       </c>
       <c r="X46">
         <f t="shared" si="1"/>
-        <v>40983.15356904846</v>
+        <v>37836.070868879498</v>
       </c>
       <c r="Y46">
         <f t="shared" si="1"/>
-        <v>47653.588601036128</v>
+        <v>43994.285418458428</v>
       </c>
       <c r="Z46">
         <f t="shared" si="1"/>
-        <v>55409.706398772985</v>
+        <v>51154.813516134607</v>
       </c>
       <c r="AA46">
         <f t="shared" si="1"/>
-        <v>64428.213138421816</v>
+        <v>59480.792129711146</v>
       </c>
       <c r="AB46">
         <f t="shared" si="1"/>
-        <v>74914.575766491165</v>
+        <v>69161.910467369948</v>
       </c>
       <c r="AC46">
         <f t="shared" si="1"/>
-        <v>87107.703114716831</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>80418.731631301926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1"/>
-    <hyperlink ref="A50" r:id="rId2"/>
+    <hyperlink ref="A36" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A48" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1783,20 +6201,2439 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2E8E20-6E09-405A-8694-07914D55502A}">
+  <dimension ref="A1:BC38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
+        <v>2020</v>
+      </c>
+      <c r="F3">
+        <v>2021</v>
+      </c>
+      <c r="G3">
+        <v>2022</v>
+      </c>
+      <c r="H3">
+        <v>2023</v>
+      </c>
+      <c r="I3">
+        <v>2024</v>
+      </c>
+      <c r="J3">
+        <v>2025</v>
+      </c>
+      <c r="K3">
+        <v>2026</v>
+      </c>
+      <c r="L3">
+        <v>2027</v>
+      </c>
+      <c r="M3">
+        <v>2028</v>
+      </c>
+      <c r="N3">
+        <v>2029</v>
+      </c>
+      <c r="O3">
+        <v>2030</v>
+      </c>
+      <c r="P3">
+        <v>2031</v>
+      </c>
+      <c r="Q3">
+        <v>2032</v>
+      </c>
+      <c r="R3">
+        <v>2033</v>
+      </c>
+      <c r="S3">
+        <v>2034</v>
+      </c>
+      <c r="T3">
+        <v>2035</v>
+      </c>
+      <c r="U3">
+        <v>2036</v>
+      </c>
+      <c r="V3">
+        <v>2037</v>
+      </c>
+      <c r="W3">
+        <v>2038</v>
+      </c>
+      <c r="X3">
+        <v>2039</v>
+      </c>
+      <c r="Y3">
+        <v>2040</v>
+      </c>
+      <c r="Z3">
+        <v>2041</v>
+      </c>
+      <c r="AA3">
+        <v>2042</v>
+      </c>
+      <c r="AB3">
+        <v>2043</v>
+      </c>
+      <c r="AC3">
+        <v>2044</v>
+      </c>
+      <c r="AD3">
+        <v>2045</v>
+      </c>
+      <c r="AE3">
+        <v>2046</v>
+      </c>
+      <c r="AF3">
+        <v>2047</v>
+      </c>
+      <c r="AG3">
+        <v>2048</v>
+      </c>
+      <c r="AH3">
+        <v>2049</v>
+      </c>
+      <c r="AI3">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <f>'EIaE-BIE'!B5</f>
+        <v>9913400</v>
+      </c>
+      <c r="C4">
+        <f>'EIaE-BIE'!C5</f>
+        <v>12369600</v>
+      </c>
+      <c r="D4">
+        <f>'EIaE-BIE'!D5</f>
+        <v>14825800</v>
+      </c>
+      <c r="E4">
+        <f>'EIaE-BIE'!E5</f>
+        <v>17282000</v>
+      </c>
+      <c r="F4">
+        <f>'EIaE-BIE'!F5</f>
+        <v>31191600</v>
+      </c>
+      <c r="G4">
+        <f>'EIaE-BIE'!G5</f>
+        <v>45101200</v>
+      </c>
+      <c r="H4">
+        <f>'EIaE-BIE'!H5</f>
+        <v>59010800</v>
+      </c>
+      <c r="I4">
+        <f>'EIaE-BIE'!I5</f>
+        <v>72920400</v>
+      </c>
+      <c r="J4">
+        <f>'EIaE-BIE'!J5</f>
+        <v>86830000</v>
+      </c>
+      <c r="K4">
+        <f>'EIaE-BIE'!K5</f>
+        <v>103390000</v>
+      </c>
+      <c r="L4">
+        <f>'EIaE-BIE'!L5</f>
+        <v>119950000</v>
+      </c>
+      <c r="M4">
+        <f>'EIaE-BIE'!M5</f>
+        <v>136510000</v>
+      </c>
+      <c r="N4">
+        <f>'EIaE-BIE'!N5</f>
+        <v>153070000</v>
+      </c>
+      <c r="O4">
+        <f>'EIaE-BIE'!O5</f>
+        <v>169630000</v>
+      </c>
+      <c r="P4">
+        <f>'EIaE-BIE'!P5</f>
+        <v>179189200</v>
+      </c>
+      <c r="Q4">
+        <f>'EIaE-BIE'!Q5</f>
+        <v>188748400</v>
+      </c>
+      <c r="R4">
+        <f>'EIaE-BIE'!R5</f>
+        <v>198307600</v>
+      </c>
+      <c r="S4">
+        <f>'EIaE-BIE'!S5</f>
+        <v>207866800</v>
+      </c>
+      <c r="T4">
+        <f>'EIaE-BIE'!T5</f>
+        <v>217426000</v>
+      </c>
+      <c r="U4">
+        <f>'EIaE-BIE'!U5</f>
+        <v>222827400</v>
+      </c>
+      <c r="V4">
+        <f>'EIaE-BIE'!V5</f>
+        <v>228228800</v>
+      </c>
+      <c r="W4">
+        <f>'EIaE-BIE'!W5</f>
+        <v>233630200</v>
+      </c>
+      <c r="X4">
+        <f>'EIaE-BIE'!X5</f>
+        <v>239031600</v>
+      </c>
+      <c r="Y4">
+        <f>'EIaE-BIE'!Y5</f>
+        <v>244433000</v>
+      </c>
+      <c r="Z4">
+        <f>'EIaE-BIE'!Z5</f>
+        <v>246359000</v>
+      </c>
+      <c r="AA4">
+        <f>'EIaE-BIE'!AA5</f>
+        <v>248285000</v>
+      </c>
+      <c r="AB4">
+        <f>'EIaE-BIE'!AB5</f>
+        <v>250211000</v>
+      </c>
+      <c r="AC4">
+        <f>'EIaE-BIE'!AC5</f>
+        <v>252137000</v>
+      </c>
+      <c r="AD4">
+        <f>'EIaE-BIE'!AD5</f>
+        <v>254063000</v>
+      </c>
+      <c r="AE4">
+        <f>'EIaE-BIE'!AE5</f>
+        <v>254063000</v>
+      </c>
+      <c r="AF4">
+        <f>'EIaE-BIE'!AF5</f>
+        <v>254063000</v>
+      </c>
+      <c r="AG4">
+        <f>'EIaE-BIE'!AG5</f>
+        <v>254063000</v>
+      </c>
+      <c r="AH4">
+        <f>'EIaE-BIE'!AH5</f>
+        <v>254063000</v>
+      </c>
+      <c r="AI4">
+        <f>'EIaE-BIE'!AI5</f>
+        <v>254063000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <f>'EIaE-BEE'!B2</f>
+        <v>7123600</v>
+      </c>
+      <c r="C5">
+        <f>'EIaE-BEE'!C2</f>
+        <v>8231400</v>
+      </c>
+      <c r="D5">
+        <f>'EIaE-BEE'!D2</f>
+        <v>9339200</v>
+      </c>
+      <c r="E5">
+        <f>'EIaE-BEE'!E2</f>
+        <v>10447000</v>
+      </c>
+      <c r="F5">
+        <f>'EIaE-BEE'!F2</f>
+        <v>13616400</v>
+      </c>
+      <c r="G5">
+        <f>'EIaE-BEE'!G2</f>
+        <v>16785800</v>
+      </c>
+      <c r="H5">
+        <f>'EIaE-BEE'!H2</f>
+        <v>19955200</v>
+      </c>
+      <c r="I5">
+        <f>'EIaE-BEE'!I2</f>
+        <v>23124600</v>
+      </c>
+      <c r="J5">
+        <f>'EIaE-BEE'!J2</f>
+        <v>26294000</v>
+      </c>
+      <c r="K5">
+        <f>'EIaE-BEE'!K2</f>
+        <v>26614400</v>
+      </c>
+      <c r="L5">
+        <f>'EIaE-BEE'!L2</f>
+        <v>26934800</v>
+      </c>
+      <c r="M5">
+        <f>'EIaE-BEE'!M2</f>
+        <v>27255200</v>
+      </c>
+      <c r="N5">
+        <f>'EIaE-BEE'!N2</f>
+        <v>27575600</v>
+      </c>
+      <c r="O5">
+        <f>'EIaE-BEE'!O2</f>
+        <v>27896000</v>
+      </c>
+      <c r="P5">
+        <f>'EIaE-BEE'!P2</f>
+        <v>32473800</v>
+      </c>
+      <c r="Q5">
+        <f>'EIaE-BEE'!Q2</f>
+        <v>37051600</v>
+      </c>
+      <c r="R5">
+        <f>'EIaE-BEE'!R2</f>
+        <v>41629400</v>
+      </c>
+      <c r="S5">
+        <f>'EIaE-BEE'!S2</f>
+        <v>46207200</v>
+      </c>
+      <c r="T5">
+        <f>'EIaE-BEE'!T2</f>
+        <v>50785000</v>
+      </c>
+      <c r="U5">
+        <f>'EIaE-BEE'!U2</f>
+        <v>55233000</v>
+      </c>
+      <c r="V5">
+        <f>'EIaE-BEE'!V2</f>
+        <v>59681000</v>
+      </c>
+      <c r="W5">
+        <f>'EIaE-BEE'!W2</f>
+        <v>64129000</v>
+      </c>
+      <c r="X5">
+        <f>'EIaE-BEE'!X2</f>
+        <v>68577000</v>
+      </c>
+      <c r="Y5">
+        <f>'EIaE-BEE'!Y2</f>
+        <v>73025000</v>
+      </c>
+      <c r="Z5">
+        <f>'EIaE-BEE'!Z2</f>
+        <v>79306800</v>
+      </c>
+      <c r="AA5">
+        <f>'EIaE-BEE'!AA2</f>
+        <v>85588600</v>
+      </c>
+      <c r="AB5">
+        <f>'EIaE-BEE'!AB2</f>
+        <v>91870400</v>
+      </c>
+      <c r="AC5">
+        <f>'EIaE-BEE'!AC2</f>
+        <v>98152200</v>
+      </c>
+      <c r="AD5">
+        <f>'EIaE-BEE'!AD2</f>
+        <v>104434000</v>
+      </c>
+      <c r="AE5">
+        <f>'EIaE-BEE'!AE2</f>
+        <v>110715800</v>
+      </c>
+      <c r="AF5">
+        <f>'EIaE-BEE'!AF2</f>
+        <v>116997600</v>
+      </c>
+      <c r="AG5">
+        <f>'EIaE-BEE'!AG2</f>
+        <v>123279400</v>
+      </c>
+      <c r="AH5">
+        <f>'EIaE-BEE'!AH2</f>
+        <v>129561200</v>
+      </c>
+      <c r="AI5">
+        <f>'EIaE-BEE'!AI2</f>
+        <v>135843000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="Q23" s="16">
+        <v>2017</v>
+      </c>
+      <c r="R23" s="16">
+        <v>2022</v>
+      </c>
+      <c r="S23" s="16">
+        <v>2027</v>
+      </c>
+      <c r="T23" s="16">
+        <v>2032</v>
+      </c>
+      <c r="U23" s="16">
+        <v>2037</v>
+      </c>
+      <c r="V23" s="16">
+        <v>2042</v>
+      </c>
+      <c r="W23" s="16">
+        <v>2047</v>
+      </c>
+      <c r="X23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24">
+        <v>1.5</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>15</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <v>25</v>
+      </c>
+      <c r="W24">
+        <v>30</v>
+      </c>
+      <c r="X24">
+        <f>((W24/R24)^(1/($W$23-$R$23))-1)*100</f>
+        <v>7.4301173220855166</v>
+      </c>
+    </row>
+    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1.5</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>3.5</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <f>((W25/R25)^(1/($W$23-$R$23))-1)*100</f>
+        <v>4.0012955326567123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>2006</v>
+      </c>
+      <c r="L28">
+        <v>2007</v>
+      </c>
+      <c r="M28">
+        <v>2008</v>
+      </c>
+      <c r="N28">
+        <v>2009</v>
+      </c>
+      <c r="O28">
+        <v>2010</v>
+      </c>
+      <c r="P28">
+        <v>2011</v>
+      </c>
+      <c r="Q28">
+        <v>2012</v>
+      </c>
+      <c r="R28">
+        <v>2013</v>
+      </c>
+      <c r="S28">
+        <v>2014</v>
+      </c>
+      <c r="T28">
+        <v>2015</v>
+      </c>
+      <c r="U28">
+        <v>2016</v>
+      </c>
+      <c r="V28">
+        <v>2017</v>
+      </c>
+      <c r="W28">
+        <v>2018</v>
+      </c>
+      <c r="X28">
+        <v>2019</v>
+      </c>
+      <c r="Y28">
+        <v>2020</v>
+      </c>
+      <c r="Z28">
+        <v>2021</v>
+      </c>
+      <c r="AA28">
+        <v>2022</v>
+      </c>
+      <c r="AB28">
+        <v>2023</v>
+      </c>
+      <c r="AC28">
+        <v>2024</v>
+      </c>
+      <c r="AD28">
+        <v>2025</v>
+      </c>
+      <c r="AE28">
+        <v>2026</v>
+      </c>
+      <c r="AF28">
+        <v>2027</v>
+      </c>
+      <c r="AG28">
+        <v>2028</v>
+      </c>
+      <c r="AH28">
+        <v>2029</v>
+      </c>
+      <c r="AI28">
+        <v>2030</v>
+      </c>
+      <c r="AJ28">
+        <v>2031</v>
+      </c>
+      <c r="AK28">
+        <v>2032</v>
+      </c>
+      <c r="AL28">
+        <v>2033</v>
+      </c>
+      <c r="AM28">
+        <v>2034</v>
+      </c>
+      <c r="AN28">
+        <v>2035</v>
+      </c>
+      <c r="AO28">
+        <v>2036</v>
+      </c>
+      <c r="AP28">
+        <v>2037</v>
+      </c>
+      <c r="AQ28">
+        <v>2038</v>
+      </c>
+      <c r="AR28">
+        <v>2039</v>
+      </c>
+      <c r="AS28">
+        <v>2040</v>
+      </c>
+      <c r="AT28">
+        <v>2041</v>
+      </c>
+      <c r="AU28">
+        <v>2042</v>
+      </c>
+      <c r="AV28">
+        <v>2043</v>
+      </c>
+      <c r="AW28">
+        <v>2044</v>
+      </c>
+      <c r="AX28">
+        <v>2045</v>
+      </c>
+      <c r="AY28">
+        <v>2046</v>
+      </c>
+      <c r="AZ28">
+        <v>2047</v>
+      </c>
+      <c r="BA28">
+        <v>2048</v>
+      </c>
+      <c r="BB28">
+        <v>2049</v>
+      </c>
+      <c r="BC28">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="J29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29">
+        <v>2957</v>
+      </c>
+      <c r="L29">
+        <v>5230</v>
+      </c>
+      <c r="M29">
+        <v>5897</v>
+      </c>
+      <c r="N29">
+        <v>5359</v>
+      </c>
+      <c r="O29">
+        <v>5611</v>
+      </c>
+      <c r="P29">
+        <v>5253</v>
+      </c>
+      <c r="Q29">
+        <v>4795</v>
+      </c>
+      <c r="R29">
+        <v>5598</v>
+      </c>
+      <c r="S29">
+        <v>5008</v>
+      </c>
+      <c r="T29">
+        <v>5244</v>
+      </c>
+      <c r="U29">
+        <v>5617</v>
+      </c>
+      <c r="V29">
+        <v>5611</v>
+      </c>
+      <c r="W29">
+        <f>V29*(1+$X$24/100)</f>
+        <v>6027.9038829422179</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ref="X29:BC29" si="0">W29*(1+$X$24/100)</f>
+        <v>6475.7842135073734</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>6956.9425780960637</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>7473.8515736787222</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>8029.167514081586</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="0"/>
+        <v>8625.7440803646241</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="0"/>
+        <v>9266.6469854385614</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="0"/>
+        <v>9955.169728280147</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="0"/>
+        <v>10694.850518704105</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="0"/>
+        <v>11489.490459665491</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="0"/>
+        <v>12343.173080528459</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="0"/>
+        <v>13260.285321679799</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="0"/>
+        <v>14245.540078323893</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="0"/>
+        <v>15304.000419308071</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="0"/>
+        <v>16441.105605435121</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="0"/>
+        <v>17662.699040966931</v>
+      </c>
+      <c r="AM29">
+        <f t="shared" si="0"/>
+        <v>18975.058301957648</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="0"/>
+        <v>20384.927395727231</v>
+      </c>
+      <c r="AO29">
+        <f t="shared" si="0"/>
+        <v>21899.551417251714</v>
+      </c>
+      <c r="AP29">
+        <f t="shared" si="0"/>
+        <v>23526.713780563958</v>
+      </c>
+      <c r="AQ29">
+        <f t="shared" si="0"/>
+        <v>25274.776216491122</v>
+      </c>
+      <c r="AR29">
+        <f t="shared" si="0"/>
+        <v>27152.72174227098</v>
+      </c>
+      <c r="AS29">
+        <f t="shared" si="0"/>
+        <v>29170.200823861138</v>
+      </c>
+      <c r="AT29">
+        <f t="shared" si="0"/>
+        <v>31337.580968161976</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="0"/>
+        <v>33665.999999999956</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="0"/>
+        <v>36167.423297653266</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="0"/>
+        <v>38854.705281044196</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="0"/>
+        <v>41741.65546857634</v>
+      </c>
+      <c r="AY29">
+        <f t="shared" si="0"/>
+        <v>44843.109442072287</v>
+      </c>
+      <c r="AZ29">
+        <f t="shared" si="0"/>
+        <v>48175.005084489465</v>
+      </c>
+      <c r="BA29">
+        <f t="shared" si="0"/>
+        <v>51754.464482187694</v>
+      </c>
+      <c r="BB29">
+        <f t="shared" si="0"/>
+        <v>55599.881912631317</v>
+      </c>
+      <c r="BC29">
+        <f t="shared" si="0"/>
+        <v>59731.018369680831</v>
+      </c>
+    </row>
+    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="J30" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30">
+        <v>216</v>
+      </c>
+      <c r="L30">
+        <v>290</v>
+      </c>
+      <c r="M30">
+        <v>58</v>
+      </c>
+      <c r="N30">
+        <v>105</v>
+      </c>
+      <c r="O30">
+        <v>128</v>
+      </c>
+      <c r="P30">
+        <v>135</v>
+      </c>
+      <c r="Q30">
+        <v>154</v>
+      </c>
+      <c r="R30">
+        <v>1651</v>
+      </c>
+      <c r="S30">
+        <v>4433</v>
+      </c>
+      <c r="T30">
+        <v>5150</v>
+      </c>
+      <c r="U30">
+        <v>6710</v>
+      </c>
+      <c r="V30">
+        <v>7203</v>
+      </c>
+      <c r="W30">
+        <f>V30*(1+$X$25/100)</f>
+        <v>7491.2133172172626</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ref="X30:BC30" si="1">W30*(1+$X$25/100)</f>
+        <v>7790.958901020862</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="1"/>
+        <v>8102.6981914785301</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="1"/>
+        <v>8426.9110922388172</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="1"/>
+        <v>8764.0967093135223</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>9114.7741194209975</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="1"/>
+        <v>9479.4831690731407</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="1"/>
+        <v>9858.7853056362092</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="1"/>
+        <v>10253.264441644847</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="1"/>
+        <v>10663.527853699861</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="1"/>
+        <v>11090.207117333557</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="1"/>
+        <v>11533.959079281802</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="1"/>
+        <v>11995.466868659558</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="1"/>
+        <v>12475.440948596548</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="1"/>
+        <v>12974.620209951969</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="1"/>
+        <v>13493.773108791951</v>
+      </c>
+      <c r="AM30">
+        <f t="shared" si="1"/>
+        <v>14033.698849380877</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="1"/>
+        <v>14595.22861450765</v>
+      </c>
+      <c r="AO30">
+        <f t="shared" si="1"/>
+        <v>15179.226845040979</v>
+      </c>
+      <c r="AP30">
+        <f t="shared" si="1"/>
+        <v>15786.592570683433</v>
+      </c>
+      <c r="AQ30">
+        <f t="shared" si="1"/>
+        <v>16418.260793972906</v>
+      </c>
+      <c r="AR30">
+        <f t="shared" si="1"/>
+        <v>17075.203929662071</v>
+      </c>
+      <c r="AS30">
+        <f t="shared" si="1"/>
+        <v>17758.433301691664</v>
+      </c>
+      <c r="AT30">
+        <f t="shared" si="1"/>
+        <v>18469.000700062075</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="1"/>
+        <v>19207.999999999996</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="1"/>
+        <v>19976.568845912698</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="1"/>
+        <v>20775.890402722296</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="1"/>
+        <v>21607.195177276077</v>
+      </c>
+      <c r="AY30">
+        <f t="shared" si="1"/>
+        <v>22471.762912636841</v>
+      </c>
+      <c r="AZ30">
+        <f t="shared" si="1"/>
+        <v>23370.924558169387</v>
+      </c>
+      <c r="BA30">
+        <f t="shared" si="1"/>
+        <v>24306.064318455989</v>
+      </c>
+      <c r="BB30">
+        <f t="shared" si="1"/>
+        <v>25278.621784195035</v>
+      </c>
+      <c r="BC30">
+        <f t="shared" si="1"/>
+        <v>26290.094148363216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2017</v>
+      </c>
+      <c r="C32">
+        <v>2018</v>
+      </c>
+      <c r="D32">
+        <v>2019</v>
+      </c>
+      <c r="E32">
+        <v>2020</v>
+      </c>
+      <c r="F32">
+        <v>2021</v>
+      </c>
+      <c r="G32">
+        <v>2022</v>
+      </c>
+      <c r="H32">
+        <v>2023</v>
+      </c>
+      <c r="I32">
+        <v>2024</v>
+      </c>
+      <c r="J32">
+        <v>2025</v>
+      </c>
+      <c r="K32">
+        <v>2026</v>
+      </c>
+      <c r="L32">
+        <v>2027</v>
+      </c>
+      <c r="M32">
+        <v>2028</v>
+      </c>
+      <c r="N32">
+        <v>2029</v>
+      </c>
+      <c r="O32">
+        <v>2030</v>
+      </c>
+      <c r="P32">
+        <v>2031</v>
+      </c>
+      <c r="Q32">
+        <v>2032</v>
+      </c>
+      <c r="R32">
+        <v>2033</v>
+      </c>
+      <c r="S32">
+        <v>2034</v>
+      </c>
+      <c r="T32">
+        <v>2035</v>
+      </c>
+      <c r="U32">
+        <v>2036</v>
+      </c>
+      <c r="V32">
+        <v>2037</v>
+      </c>
+      <c r="W32">
+        <v>2038</v>
+      </c>
+      <c r="X32">
+        <v>2039</v>
+      </c>
+      <c r="Y32">
+        <v>2040</v>
+      </c>
+      <c r="Z32">
+        <v>2041</v>
+      </c>
+      <c r="AA32">
+        <v>2042</v>
+      </c>
+      <c r="AB32">
+        <v>2043</v>
+      </c>
+      <c r="AC32">
+        <v>2044</v>
+      </c>
+      <c r="AD32">
+        <v>2045</v>
+      </c>
+      <c r="AE32">
+        <v>2046</v>
+      </c>
+      <c r="AF32">
+        <v>2047</v>
+      </c>
+      <c r="AG32">
+        <v>2048</v>
+      </c>
+      <c r="AH32">
+        <v>2049</v>
+      </c>
+      <c r="AI32">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33">
+        <f>V29*1000</f>
+        <v>5611000</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:S34" si="2">W29*1000</f>
+        <v>6027903.8829422183</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>6475784.2135073729</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>6956942.5780960638</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>7473851.5736787226</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>8029167.5140815862</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>8625744.080364624</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>9266646.9854385611</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>9955169.7282801475</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>10694850.518704105</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>11489490.45966549</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>12343173.080528459</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>13260285.321679799</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>14245540.078323893</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>15304000.419308072</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>16441105.605435122</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>17662699.040966932</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>18975058.301957648</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ref="T33:T34" si="3">AN29*1000</f>
+        <v>20384927.395727232</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:U34" si="4">AO29*1000</f>
+        <v>21899551.417251714</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:V34" si="5">AP29*1000</f>
+        <v>23526713.780563958</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33:W34" si="6">AQ29*1000</f>
+        <v>25274776.216491122</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ref="X33:X34" si="7">AR29*1000</f>
+        <v>27152721.74227098</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33:Y34" si="8">AS29*1000</f>
+        <v>29170200.823861137</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" ref="Z33:Z34" si="9">AT29*1000</f>
+        <v>31337580.968161974</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" ref="AA33:AA34" si="10">AU29*1000</f>
+        <v>33665999.999999955</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" ref="AB33:AB34" si="11">AV29*1000</f>
+        <v>36167423.297653265</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" ref="AC33:AC34" si="12">AW29*1000</f>
+        <v>38854705.2810442</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" ref="AD33:AD34" si="13">AX29*1000</f>
+        <v>41741655.468576342</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" ref="AE33:AE34" si="14">AY29*1000</f>
+        <v>44843109.442072287</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" ref="AF33:AF34" si="15">AZ29*1000</f>
+        <v>48175005.084489465</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" ref="AG33:AG34" si="16">BA29*1000</f>
+        <v>51754464.482187696</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" ref="AH33:AH34" si="17">BB29*1000</f>
+        <v>55599881.912631318</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" ref="AI33:AI34" si="18">BC29*1000</f>
+        <v>59731018.369680829</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <f>V30*1000</f>
+        <v>7203000</v>
+      </c>
+      <c r="C34">
+        <f>W30*1000</f>
+        <v>7491213.3172172625</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:R34" si="19">X30*1000</f>
+        <v>7790958.9010208622</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="19"/>
+        <v>8102698.1914785299</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="19"/>
+        <v>8426911.0922388174</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="19"/>
+        <v>8764096.709313523</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="19"/>
+        <v>9114774.1194209978</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="19"/>
+        <v>9479483.1690731402</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="19"/>
+        <v>9858785.3056362085</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="19"/>
+        <v>10253264.441644847</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="19"/>
+        <v>10663527.853699861</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="19"/>
+        <v>11090207.117333557</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="19"/>
+        <v>11533959.079281801</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="19"/>
+        <v>11995466.868659558</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="19"/>
+        <v>12475440.948596548</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="19"/>
+        <v>12974620.209951969</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="19"/>
+        <v>13493773.108791951</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>14033698.849380877</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>14595228.614507651</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>15179226.845040979</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="5"/>
+        <v>15786592.570683433</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="6"/>
+        <v>16418260.793972906</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="7"/>
+        <v>17075203.929662071</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="8"/>
+        <v>17758433.301691666</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="9"/>
+        <v>18469000.700062074</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="10"/>
+        <v>19207999.999999996</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="11"/>
+        <v>19976568.845912699</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="12"/>
+        <v>20775890.402722295</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="13"/>
+        <v>21607195.177276075</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="14"/>
+        <v>22471762.912636843</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="15"/>
+        <v>23370924.558169387</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="16"/>
+        <v>24306064.318455987</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="17"/>
+        <v>25278621.784195036</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="18"/>
+        <v>26290094.148363218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <f>'IRADe-BBIN study'!D15</f>
+        <v>9913400</v>
+      </c>
+      <c r="C37">
+        <f>'IRADe-BBIN study'!E15</f>
+        <v>12369600</v>
+      </c>
+      <c r="D37">
+        <f>'IRADe-BBIN study'!F15</f>
+        <v>14825800</v>
+      </c>
+      <c r="E37">
+        <f>'IRADe-BBIN study'!G15</f>
+        <v>17282000</v>
+      </c>
+      <c r="F37">
+        <f>'IRADe-BBIN study'!H15</f>
+        <v>31191600</v>
+      </c>
+      <c r="G37">
+        <f>'IRADe-BBIN study'!I15</f>
+        <v>45101200</v>
+      </c>
+      <c r="H37">
+        <f>'IRADe-BBIN study'!J15</f>
+        <v>59010800</v>
+      </c>
+      <c r="I37">
+        <f>'IRADe-BBIN study'!K15</f>
+        <v>72920400</v>
+      </c>
+      <c r="J37">
+        <f>'IRADe-BBIN study'!L15</f>
+        <v>86830000</v>
+      </c>
+      <c r="K37">
+        <f>'IRADe-BBIN study'!M15</f>
+        <v>103390000</v>
+      </c>
+      <c r="L37">
+        <f>'IRADe-BBIN study'!N15</f>
+        <v>119950000</v>
+      </c>
+      <c r="M37">
+        <f>'IRADe-BBIN study'!O15</f>
+        <v>136510000</v>
+      </c>
+      <c r="N37">
+        <f>'IRADe-BBIN study'!P15</f>
+        <v>153070000</v>
+      </c>
+      <c r="O37">
+        <f>'IRADe-BBIN study'!Q15</f>
+        <v>169630000</v>
+      </c>
+      <c r="P37">
+        <f>'IRADe-BBIN study'!R15</f>
+        <v>179189200</v>
+      </c>
+      <c r="Q37">
+        <f>'IRADe-BBIN study'!S15</f>
+        <v>188748400</v>
+      </c>
+      <c r="R37">
+        <f>'IRADe-BBIN study'!T15</f>
+        <v>198307600</v>
+      </c>
+      <c r="S37">
+        <f>'IRADe-BBIN study'!U15</f>
+        <v>207866800</v>
+      </c>
+      <c r="T37">
+        <f>'IRADe-BBIN study'!V15</f>
+        <v>217426000</v>
+      </c>
+      <c r="U37">
+        <f>'IRADe-BBIN study'!W15</f>
+        <v>222827400</v>
+      </c>
+      <c r="V37">
+        <f>'IRADe-BBIN study'!X15</f>
+        <v>228228800</v>
+      </c>
+      <c r="W37">
+        <f>'IRADe-BBIN study'!Y15</f>
+        <v>233630200</v>
+      </c>
+      <c r="X37">
+        <f>'IRADe-BBIN study'!Z15</f>
+        <v>239031600</v>
+      </c>
+      <c r="Y37">
+        <f>'IRADe-BBIN study'!AA15</f>
+        <v>244433000</v>
+      </c>
+      <c r="Z37">
+        <f>'IRADe-BBIN study'!AB15</f>
+        <v>246359000</v>
+      </c>
+      <c r="AA37">
+        <f>'IRADe-BBIN study'!AC15</f>
+        <v>248285000</v>
+      </c>
+      <c r="AB37">
+        <f>'IRADe-BBIN study'!AD15</f>
+        <v>250211000</v>
+      </c>
+      <c r="AC37">
+        <f>'IRADe-BBIN study'!AE15</f>
+        <v>252137000</v>
+      </c>
+      <c r="AD37">
+        <f>'IRADe-BBIN study'!AF15</f>
+        <v>254063000</v>
+      </c>
+      <c r="AE37">
+        <f>'IRADe-BBIN study'!AG15</f>
+        <v>254063000</v>
+      </c>
+      <c r="AF37">
+        <f>'IRADe-BBIN study'!AH15</f>
+        <v>254063000</v>
+      </c>
+      <c r="AG37">
+        <f>'IRADe-BBIN study'!AI15</f>
+        <v>254063000</v>
+      </c>
+      <c r="AH37">
+        <f>'IRADe-BBIN study'!AJ15</f>
+        <v>254063000</v>
+      </c>
+      <c r="AI37">
+        <f>'IRADe-BBIN study'!AK15</f>
+        <v>254063000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <f>'IRADe-BBIN study'!D16</f>
+        <v>7123600</v>
+      </c>
+      <c r="C38">
+        <f>'IRADe-BBIN study'!E16</f>
+        <v>8231400</v>
+      </c>
+      <c r="D38">
+        <f>'IRADe-BBIN study'!F16</f>
+        <v>9339200</v>
+      </c>
+      <c r="E38">
+        <f>'IRADe-BBIN study'!G16</f>
+        <v>10447000</v>
+      </c>
+      <c r="F38">
+        <f>'IRADe-BBIN study'!H16</f>
+        <v>13616400</v>
+      </c>
+      <c r="G38">
+        <f>'IRADe-BBIN study'!I16</f>
+        <v>16785800</v>
+      </c>
+      <c r="H38">
+        <f>'IRADe-BBIN study'!J16</f>
+        <v>19955200</v>
+      </c>
+      <c r="I38">
+        <f>'IRADe-BBIN study'!K16</f>
+        <v>23124600</v>
+      </c>
+      <c r="J38">
+        <f>'IRADe-BBIN study'!L16</f>
+        <v>26294000</v>
+      </c>
+      <c r="K38">
+        <f>'IRADe-BBIN study'!M16</f>
+        <v>26614400</v>
+      </c>
+      <c r="L38">
+        <f>'IRADe-BBIN study'!N16</f>
+        <v>26934800</v>
+      </c>
+      <c r="M38">
+        <f>'IRADe-BBIN study'!O16</f>
+        <v>27255200</v>
+      </c>
+      <c r="N38">
+        <f>'IRADe-BBIN study'!P16</f>
+        <v>27575600</v>
+      </c>
+      <c r="O38">
+        <f>'IRADe-BBIN study'!Q16</f>
+        <v>27896000</v>
+      </c>
+      <c r="P38">
+        <f>'IRADe-BBIN study'!R16</f>
+        <v>32473800</v>
+      </c>
+      <c r="Q38">
+        <f>'IRADe-BBIN study'!S16</f>
+        <v>37051600</v>
+      </c>
+      <c r="R38">
+        <f>'IRADe-BBIN study'!T16</f>
+        <v>41629400</v>
+      </c>
+      <c r="S38">
+        <f>'IRADe-BBIN study'!U16</f>
+        <v>46207200</v>
+      </c>
+      <c r="T38">
+        <f>'IRADe-BBIN study'!V16</f>
+        <v>50785000</v>
+      </c>
+      <c r="U38">
+        <f>'IRADe-BBIN study'!W16</f>
+        <v>55233000</v>
+      </c>
+      <c r="V38">
+        <f>'IRADe-BBIN study'!X16</f>
+        <v>59681000</v>
+      </c>
+      <c r="W38">
+        <f>'IRADe-BBIN study'!Y16</f>
+        <v>64129000</v>
+      </c>
+      <c r="X38">
+        <f>'IRADe-BBIN study'!Z16</f>
+        <v>68577000</v>
+      </c>
+      <c r="Y38">
+        <f>'IRADe-BBIN study'!AA16</f>
+        <v>73025000</v>
+      </c>
+      <c r="Z38">
+        <f>'IRADe-BBIN study'!AB16</f>
+        <v>79306800</v>
+      </c>
+      <c r="AA38">
+        <f>'IRADe-BBIN study'!AC16</f>
+        <v>85588600</v>
+      </c>
+      <c r="AB38">
+        <f>'IRADe-BBIN study'!AD16</f>
+        <v>91870400</v>
+      </c>
+      <c r="AC38">
+        <f>'IRADe-BBIN study'!AE16</f>
+        <v>98152200</v>
+      </c>
+      <c r="AD38">
+        <f>'IRADe-BBIN study'!AF16</f>
+        <v>104434000</v>
+      </c>
+      <c r="AE38">
+        <f>'IRADe-BBIN study'!AG16</f>
+        <v>110715800</v>
+      </c>
+      <c r="AF38">
+        <f>'IRADe-BBIN study'!AH16</f>
+        <v>116997600</v>
+      </c>
+      <c r="AG38">
+        <f>'IRADe-BBIN study'!AI16</f>
+        <v>123279400</v>
+      </c>
+      <c r="AH38">
+        <f>'IRADe-BBIN study'!AJ16</f>
+        <v>129561200</v>
+      </c>
+      <c r="AI38">
+        <f>'IRADe-BBIN study'!AK16</f>
+        <v>135843000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124CAFB5-B377-457D-BB7F-D13F867419D0}">
+  <dimension ref="A1:AK19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="19">
+        <v>3380</v>
+      </c>
+      <c r="C4" s="20">
+        <v>158</v>
+      </c>
+      <c r="D4" s="21">
+        <v>1370</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>4998</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
+      <c r="H4" s="37">
+        <f>SUM(E4:G4)*1000</f>
+        <v>5001000</v>
+      </c>
+      <c r="I4" s="37">
+        <f>SUM(B4:D4)*1000</f>
+        <v>4908000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="19">
+        <v>9619</v>
+      </c>
+      <c r="C5" s="20">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>828</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>15392</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1890</v>
+      </c>
+      <c r="H5" s="37">
+        <f t="shared" ref="H5:H10" si="0">SUM(E5:G5)*1000</f>
+        <v>17282000</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" ref="I5:I10" si="1">SUM(B5:D5)*1000</f>
+        <v>10447000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="19">
+        <v>24841</v>
+      </c>
+      <c r="C6" s="20">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1453</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>46459</v>
+      </c>
+      <c r="G6" s="21">
+        <v>40371</v>
+      </c>
+      <c r="H6" s="37">
+        <f t="shared" si="0"/>
+        <v>86830000</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="1"/>
+        <v>26294000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2030</v>
+      </c>
+      <c r="B7" s="19">
+        <v>27896</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>345</v>
+      </c>
+      <c r="F7" s="20">
+        <v>96807</v>
+      </c>
+      <c r="G7" s="21">
+        <v>72478</v>
+      </c>
+      <c r="H7" s="37">
+        <f t="shared" si="0"/>
+        <v>169630000</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="1"/>
+        <v>27896000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2035</v>
+      </c>
+      <c r="B8" s="19">
+        <v>50710</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>75</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>118383</v>
+      </c>
+      <c r="G8" s="21">
+        <v>99043</v>
+      </c>
+      <c r="H8" s="37">
+        <f t="shared" si="0"/>
+        <v>217426000</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="1"/>
+        <v>50785000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2040</v>
+      </c>
+      <c r="B9" s="19">
+        <v>72801</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21">
+        <v>224</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>118383</v>
+      </c>
+      <c r="G9" s="21">
+        <v>126050</v>
+      </c>
+      <c r="H9" s="37">
+        <f t="shared" si="0"/>
+        <v>244433000</v>
+      </c>
+      <c r="I9" s="37">
+        <f t="shared" si="1"/>
+        <v>73025000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2045</v>
+      </c>
+      <c r="B10" s="19">
+        <v>103870</v>
+      </c>
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>564</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>118383</v>
+      </c>
+      <c r="G10" s="21">
+        <v>135680</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="0"/>
+        <v>254063000</v>
+      </c>
+      <c r="I10" s="38">
+        <f t="shared" si="1"/>
+        <v>104434000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="23">
+        <v>0.12</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="25">
+        <v>-0.03</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.11</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14">
+        <v>2017</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="F14">
+        <v>2019</v>
+      </c>
+      <c r="G14">
+        <v>2020</v>
+      </c>
+      <c r="H14">
+        <v>2021</v>
+      </c>
+      <c r="I14">
+        <v>2022</v>
+      </c>
+      <c r="J14">
+        <v>2023</v>
+      </c>
+      <c r="K14">
+        <v>2024</v>
+      </c>
+      <c r="L14">
+        <v>2025</v>
+      </c>
+      <c r="M14">
+        <v>2026</v>
+      </c>
+      <c r="N14">
+        <v>2027</v>
+      </c>
+      <c r="O14">
+        <v>2028</v>
+      </c>
+      <c r="P14">
+        <v>2029</v>
+      </c>
+      <c r="Q14">
+        <v>2030</v>
+      </c>
+      <c r="R14">
+        <v>2031</v>
+      </c>
+      <c r="S14">
+        <v>2032</v>
+      </c>
+      <c r="T14">
+        <v>2033</v>
+      </c>
+      <c r="U14">
+        <v>2034</v>
+      </c>
+      <c r="V14">
+        <v>2035</v>
+      </c>
+      <c r="W14">
+        <v>2036</v>
+      </c>
+      <c r="X14">
+        <v>2037</v>
+      </c>
+      <c r="Y14">
+        <v>2038</v>
+      </c>
+      <c r="Z14">
+        <v>2039</v>
+      </c>
+      <c r="AA14">
+        <v>2040</v>
+      </c>
+      <c r="AB14">
+        <v>2041</v>
+      </c>
+      <c r="AC14">
+        <v>2042</v>
+      </c>
+      <c r="AD14">
+        <v>2043</v>
+      </c>
+      <c r="AE14">
+        <v>2044</v>
+      </c>
+      <c r="AF14">
+        <v>2045</v>
+      </c>
+      <c r="AG14">
+        <v>2046</v>
+      </c>
+      <c r="AH14">
+        <v>2047</v>
+      </c>
+      <c r="AI14">
+        <v>2048</v>
+      </c>
+      <c r="AJ14">
+        <v>2049</v>
+      </c>
+      <c r="AK14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <f>H4</f>
+        <v>5001000</v>
+      </c>
+      <c r="C15">
+        <f>FORECAST(C14,$H$4:$H$5,$A$4:$A$5)</f>
+        <v>7457200</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:F15" si="2">FORECAST(D14,$H$4:$H$5,$A$4:$A$5)</f>
+        <v>9913400</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>12369600</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>14825800</v>
+      </c>
+      <c r="G15">
+        <f>H5</f>
+        <v>17282000</v>
+      </c>
+      <c r="H15">
+        <f>FORECAST(H14,$H$5:$H$6,$A$5:$A$6)</f>
+        <v>31191600</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:K15" si="3">FORECAST(I14,$H$5:$H$6,$A$5:$A$6)</f>
+        <v>45101200</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>59010800</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>72920400</v>
+      </c>
+      <c r="L15">
+        <f>H6</f>
+        <v>86830000</v>
+      </c>
+      <c r="M15">
+        <f>FORECAST(M14,$H$6:$H$7,$A$6:$A$7)</f>
+        <v>103390000</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15:P15" si="4">FORECAST(N14,$H$6:$H$7,$A$6:$A$7)</f>
+        <v>119950000</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>136510000</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>153070000</v>
+      </c>
+      <c r="Q15">
+        <f>H7</f>
+        <v>169630000</v>
+      </c>
+      <c r="R15">
+        <f>FORECAST(R14,$H$7:$H$8,$A$7:$A$8)</f>
+        <v>179189200</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:U15" si="5">FORECAST(S14,$H$7:$H$8,$A$7:$A$8)</f>
+        <v>188748400</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>198307600</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>207866800</v>
+      </c>
+      <c r="V15">
+        <f>H8</f>
+        <v>217426000</v>
+      </c>
+      <c r="W15">
+        <f>FORECAST(W14,$H$8:$H$9,$A$8:$A$9)</f>
+        <v>222827400</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:Z15" si="6">FORECAST(X14,$H$8:$H$9,$A$8:$A$9)</f>
+        <v>228228800</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="6"/>
+        <v>233630200</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="6"/>
+        <v>239031600</v>
+      </c>
+      <c r="AA15">
+        <f>H9</f>
+        <v>244433000</v>
+      </c>
+      <c r="AB15">
+        <f>FORECAST(AB14,$H$9:$H$10,$A$9:$A$10)</f>
+        <v>246359000</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ref="AC15:AE15" si="7">FORECAST(AC14,$H$9:$H$10,$A$9:$A$10)</f>
+        <v>248285000</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="7"/>
+        <v>250211000</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="7"/>
+        <v>252137000</v>
+      </c>
+      <c r="AF15">
+        <f>H10</f>
+        <v>254063000</v>
+      </c>
+      <c r="AG15">
+        <f>AF15</f>
+        <v>254063000</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" ref="AH15:AK15" si="8">AG15</f>
+        <v>254063000</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="8"/>
+        <v>254063000</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="8"/>
+        <v>254063000</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="8"/>
+        <v>254063000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <f>I4</f>
+        <v>4908000</v>
+      </c>
+      <c r="C16">
+        <f>FORECAST(C14,$I$4:$I$5,$A$4:$A$5)</f>
+        <v>6015800</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:F16" si="9">FORECAST(D14,$I$4:$I$5,$A$4:$A$5)</f>
+        <v>7123600</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="9"/>
+        <v>8231400</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="9"/>
+        <v>9339200</v>
+      </c>
+      <c r="G16">
+        <f>I5</f>
+        <v>10447000</v>
+      </c>
+      <c r="H16">
+        <f>FORECAST(H14,$I$5:$I$6,$A$5:$A$6)</f>
+        <v>13616400</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:K16" si="10">FORECAST(I14,$I$5:$I$6,$A$5:$A$6)</f>
+        <v>16785800</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>19955200</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="10"/>
+        <v>23124600</v>
+      </c>
+      <c r="L16">
+        <f>I6</f>
+        <v>26294000</v>
+      </c>
+      <c r="M16">
+        <f>FORECAST(M14,$I$6:$I$7,$A$6:$A$7)</f>
+        <v>26614400</v>
+      </c>
+      <c r="N16">
+        <f t="shared" ref="N16:P16" si="11">FORECAST(N14,$I$6:$I$7,$A$6:$A$7)</f>
+        <v>26934800</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="11"/>
+        <v>27255200</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="11"/>
+        <v>27575600</v>
+      </c>
+      <c r="Q16">
+        <f>I7</f>
+        <v>27896000</v>
+      </c>
+      <c r="R16">
+        <f>FORECAST(R14,$I$7:$I$8,$A$7:$A$8)</f>
+        <v>32473800</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:U16" si="12">FORECAST(S14,$I$7:$I$8,$A$7:$A$8)</f>
+        <v>37051600</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="12"/>
+        <v>41629400</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="12"/>
+        <v>46207200</v>
+      </c>
+      <c r="V16">
+        <f>I8</f>
+        <v>50785000</v>
+      </c>
+      <c r="W16">
+        <f>FORECAST(W14,$I$8:$I$9,$A$8:$A$9)</f>
+        <v>55233000</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ref="X16:Z16" si="13">FORECAST(X14,$I$8:$I$9,$A$8:$A$9)</f>
+        <v>59681000</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="13"/>
+        <v>64129000</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="13"/>
+        <v>68577000</v>
+      </c>
+      <c r="AA16">
+        <f>I9</f>
+        <v>73025000</v>
+      </c>
+      <c r="AB16">
+        <f>FORECAST(AB14,$I$9:$I$10,$A$9:$A$10)</f>
+        <v>79306800</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" ref="AC16:AE16" si="14">FORECAST(AC14,$I$9:$I$10,$A$9:$A$10)</f>
+        <v>85588600</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="14"/>
+        <v>91870400</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="14"/>
+        <v>98152200</v>
+      </c>
+      <c r="AF16">
+        <f>I10</f>
+        <v>104434000</v>
+      </c>
+      <c r="AG16">
+        <f>TREND(AA16:AF16,AA14:AF14,AG14)</f>
+        <v>110715800</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" ref="AH16:AK16" si="15">TREND(AB16:AG16,AB14:AG14,AH14)</f>
+        <v>116997600</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="15"/>
+        <v>123279400</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="15"/>
+        <v>129561200</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="15"/>
+        <v>135843000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:AI5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -2226,140 +9063,140 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <f>Data!M45*1000</f>
-        <v>5887303.4616471361</v>
+        <f>'IRADe-BBIN study'!D15</f>
+        <v>9913400</v>
       </c>
       <c r="C5">
-        <f>Data!N45*1000</f>
-        <v>6170614.5717504621</v>
+        <f>'IRADe-BBIN study'!E15</f>
+        <v>12369600</v>
       </c>
       <c r="D5">
-        <f>Data!O45*1000</f>
-        <v>6467559.2894350635</v>
+        <f>'IRADe-BBIN study'!F15</f>
+        <v>14825800</v>
       </c>
       <c r="E5">
-        <f>Data!P45*1000</f>
-        <v>6778793.6964748334</v>
+        <f>'IRADe-BBIN study'!G15</f>
+        <v>17282000</v>
       </c>
       <c r="F5">
-        <f>Data!Q45*1000</f>
-        <v>7105005.4468663111</v>
+        <f>'IRADe-BBIN study'!H15</f>
+        <v>31191600</v>
       </c>
       <c r="G5">
-        <f>Data!R45*1000</f>
-        <v>7446915.2861594772</v>
+        <f>'IRADe-BBIN study'!I15</f>
+        <v>45101200</v>
       </c>
       <c r="H5">
-        <f>Data!S45*1000</f>
-        <v>7805278.6439023782</v>
+        <f>'IRADe-BBIN study'!J15</f>
+        <v>59010800</v>
       </c>
       <c r="I5">
-        <f>Data!T45*1000</f>
-        <v>8180887.3027179874</v>
+        <f>'IRADe-BBIN study'!K15</f>
+        <v>72920400</v>
       </c>
       <c r="J5">
-        <f>Data!U45*1000</f>
-        <v>8574571.1477010343</v>
+        <f>'IRADe-BBIN study'!L15</f>
+        <v>86830000</v>
       </c>
       <c r="K5">
-        <f>Data!V45*1000</f>
-        <v>8987199.9999999925</v>
+        <f>'IRADe-BBIN study'!M15</f>
+        <v>103390000</v>
       </c>
       <c r="L5">
-        <f>Data!W45*1000</f>
-        <v>9419685.5386354085</v>
+        <f>'IRADe-BBIN study'!N15</f>
+        <v>119950000</v>
       </c>
       <c r="M5">
-        <f>Data!X45*1000</f>
-        <v>9872983.3148007318</v>
+        <f>'IRADe-BBIN study'!O15</f>
+        <v>136510000</v>
       </c>
       <c r="N5">
-        <f>Data!Y45*1000</f>
-        <v>10348094.863096094</v>
+        <f>'IRADe-BBIN study'!P15</f>
+        <v>153070000</v>
       </c>
       <c r="O5">
-        <f>Data!Z45*1000</f>
-        <v>10846069.914359724</v>
+        <f>'IRADe-BBIN study'!Q15</f>
+        <v>169630000</v>
       </c>
       <c r="P5">
-        <f>Data!AA45*1000</f>
-        <v>11368008.714986088</v>
+        <f>'IRADe-BBIN study'!R15</f>
+        <v>179189200</v>
       </c>
       <c r="Q5">
-        <f>Data!AB45*1000</f>
-        <v>11915064.457855154</v>
+        <f>'IRADe-BBIN study'!S15</f>
+        <v>188748400</v>
       </c>
       <c r="R5">
-        <f>Data!AC45*1000</f>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!T15</f>
+        <v>198307600</v>
       </c>
       <c r="S5">
-        <f>R5</f>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!U15</f>
+        <v>207866800</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:AI5" si="0">S5</f>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!V15</f>
+        <v>217426000</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!W15</f>
+        <v>222827400</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!X15</f>
+        <v>228228800</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!Y15</f>
+        <v>233630200</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!Z15</f>
+        <v>239031600</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AA15</f>
+        <v>244433000</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AB15</f>
+        <v>246359000</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AC15</f>
+        <v>248285000</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AD15</f>
+        <v>250211000</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AE15</f>
+        <v>252137000</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AF15</f>
+        <v>254063000</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AG15</f>
+        <v>254063000</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AH15</f>
+        <v>254063000</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AI15</f>
+        <v>254063000</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AJ15</f>
+        <v>254063000</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>12488445.830243796</v>
+        <f>'IRADe-BBIN study'!AK15</f>
+        <v>254063000</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -3322,6 +10159,327 @@
         <v>0</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
         <v>0</v>
       </c>
     </row>
@@ -3330,21 +10488,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -3448,153 +10611,145 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <f>Data!K46*1000</f>
-        <v>5150000</v>
+        <f>'IRADe-BBIN study'!D16</f>
+        <v>7123600</v>
       </c>
       <c r="C2">
-        <f>Data!L46*1000</f>
-        <v>6710000</v>
+        <f>'IRADe-BBIN study'!E16</f>
+        <v>8231400</v>
       </c>
       <c r="D2">
-        <f>Data!M46*1000</f>
-        <v>7802122.3763131807</v>
+        <f>'IRADe-BBIN study'!F16</f>
+        <v>9339200</v>
       </c>
       <c r="E2">
-        <f>Data!N46*1000</f>
-        <v>9071999.0424689781</v>
+        <f>'IRADe-BBIN study'!G16</f>
+        <v>10447000</v>
       </c>
       <c r="F2">
-        <f>Data!O46*1000</f>
-        <v>10548561.360229356</v>
+        <f>'IRADe-BBIN study'!H16</f>
+        <v>13616400</v>
       </c>
       <c r="G2">
-        <f>Data!P46*1000</f>
-        <v>12265449.571767224</v>
+        <f>'IRADe-BBIN study'!I16</f>
+        <v>16785800</v>
       </c>
       <c r="H2">
-        <f>Data!Q46*1000</f>
-        <v>14261779.21899046</v>
+        <f>'IRADe-BBIN study'!J16</f>
+        <v>19955200</v>
       </c>
       <c r="I2">
-        <f>Data!R46*1000</f>
-        <v>16583032.30559222</v>
+        <f>'IRADe-BBIN study'!K16</f>
+        <v>23124600</v>
       </c>
       <c r="J2">
-        <f>Data!S46*1000</f>
-        <v>19282093.505005278</v>
+        <f>'IRADe-BBIN study'!L16</f>
+        <v>26294000</v>
       </c>
       <c r="K2">
-        <f>Data!T46*1000</f>
-        <v>22420455.021991767</v>
+        <f>'IRADe-BBIN study'!M16</f>
+        <v>26614400</v>
       </c>
       <c r="L2">
-        <f>Data!U46*1000</f>
-        <v>26069617.558003757</v>
+        <f>'IRADe-BBIN study'!N16</f>
+        <v>26934800</v>
       </c>
       <c r="M2">
-        <f>Data!V46*1000</f>
-        <v>30312719.298245616</v>
+        <f>'IRADe-BBIN study'!O16</f>
+        <v>27255200</v>
       </c>
       <c r="N2">
-        <f>Data!W46*1000</f>
-        <v>35246430.033344634</v>
+        <f>'IRADe-BBIN study'!P16</f>
+        <v>27575600</v>
       </c>
       <c r="O2">
-        <f>Data!X46*1000</f>
-        <v>40983153.569048457</v>
+        <f>'IRADe-BBIN study'!Q16</f>
+        <v>27896000</v>
       </c>
       <c r="P2">
-        <f>Data!Y46*1000</f>
-        <v>47653588.601036131</v>
+        <f>'IRADe-BBIN study'!R16</f>
+        <v>32473800</v>
       </c>
       <c r="Q2">
-        <f>Data!Z46*1000</f>
-        <v>55409706.398772985</v>
+        <f>'IRADe-BBIN study'!S16</f>
+        <v>37051600</v>
       </c>
       <c r="R2">
-        <f>Data!AA46*1000</f>
-        <v>64428213.138421819</v>
+        <f>'IRADe-BBIN study'!T16</f>
+        <v>41629400</v>
       </c>
       <c r="S2">
-        <f>Data!AB46*1000</f>
-        <v>74914575.76649116</v>
+        <f>'IRADe-BBIN study'!U16</f>
+        <v>46207200</v>
       </c>
       <c r="T2">
-        <f>Data!AC46*1000</f>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!V16</f>
+        <v>50785000</v>
       </c>
       <c r="U2">
-        <f>T2</f>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!W16</f>
+        <v>55233000</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:AK2" si="0">U2</f>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!X16</f>
+        <v>59681000</v>
       </c>
       <c r="W2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!Y16</f>
+        <v>64129000</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!Z16</f>
+        <v>68577000</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AA16</f>
+        <v>73025000</v>
       </c>
       <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AB16</f>
+        <v>79306800</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AC16</f>
+        <v>85588600</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AD16</f>
+        <v>91870400</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AE16</f>
+        <v>98152200</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AF16</f>
+        <v>104434000</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AG16</f>
+        <v>110715800</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AH16</f>
+        <v>116997600</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AI16</f>
+        <v>123279400</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AJ16</f>
+        <v>129561200</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
-      </c>
-      <c r="AJ2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" si="0"/>
-        <v>87107703.114716828</v>
+        <f>'IRADe-BBIN study'!AK16</f>
+        <v>135843000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/EIaE/Elec Imports and Exports.xlsx
+++ b/InputData/elec/EIaE/Elec Imports and Exports.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\elec\EIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\EIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D190219-256B-4FB1-A8E9-F208FA851CB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55159E5-06B0-45B1-8FAB-2EF51714B37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data from 1.4.3" sheetId="9" r:id="rId2"/>
     <sheet name="Comparisons" sheetId="10" r:id="rId3"/>
     <sheet name="IRADe-BBIN study" sheetId="11" r:id="rId4"/>
-    <sheet name="EIaE-BIE" sheetId="3" r:id="rId5"/>
-    <sheet name="EIaE-BEE" sheetId="5" r:id="rId6"/>
+    <sheet name="Conversion Factors" sheetId="14" r:id="rId5"/>
+    <sheet name="Electricity" sheetId="15" r:id="rId6"/>
+    <sheet name="EIaE-BIE" sheetId="3" r:id="rId7"/>
+    <sheet name="EIaE-BEE" sheetId="5" r:id="rId8"/>
+    <sheet name="EIaE-IEP" sheetId="12" r:id="rId9"/>
+    <sheet name="EIaE-BEEP" sheetId="13" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="BTU_per_kWh">[1]About!$A$163</definedName>
+    <definedName name="gal_per_barrel">[2]About!$A$40</definedName>
     <definedName name="HHV_Adjust">[1]About!$A$160</definedName>
+    <definedName name="lignite_multiplier" localSheetId="4">#REF!</definedName>
+    <definedName name="lignite_multiplier" localSheetId="5">#REF!</definedName>
+    <definedName name="lignite_multiplier">'[3]Hard Coal and Lig Multipliers'!$N$16</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="4">#REF!</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="5">#REF!</definedName>
+    <definedName name="nonlignite_multiplier">'[3]Hard Coal and Lig Multipliers'!$N$17</definedName>
+    <definedName name="tax_fuel_labels">'[4]Tax_Share of Price'!$A$2:$A$22</definedName>
+    <definedName name="Tax_share">'[4]Tax_Share of Price'!$B$2:$AI$22</definedName>
     <definedName name="use_lifecycle_biofuel_EIs">[1]About!$A$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +49,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
   <si>
     <t>EIaE BAU Imported Electricity</t>
   </si>
@@ -481,15 +499,282 @@
   <si>
     <t>Source: IRADe-USAID (SARI/EI)</t>
   </si>
+  <si>
+    <t>Unit: 2012 USD/MWh</t>
+  </si>
+  <si>
+    <t>Imported Electricity Price</t>
+  </si>
+  <si>
+    <t>Exported Electricity Price</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Historical Consumer Price Index for All Urban Consumers (CPI-U): U.S. city average, all items, index</t>
+  </si>
+  <si>
+    <t>India Inflation Rates</t>
+  </si>
+  <si>
+    <t>See scaling-factors.xlsx for source info</t>
+  </si>
+  <si>
+    <t>See cpi.xlsx for source info</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Value Indexed to 2012</t>
+  </si>
+  <si>
+    <t>Multiply by to get 2012 Dollars</t>
+  </si>
+  <si>
+    <t>2010.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2011.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2012.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2013.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2014.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2015.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2016.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2017.............................................................................     .</t>
+  </si>
+  <si>
+    <t>2018.............................................................................     .</t>
+  </si>
+  <si>
+    <t>Ruppees per dollar</t>
+  </si>
+  <si>
+    <t>Fuel-Independent Conversion Factors</t>
+  </si>
+  <si>
+    <t>liters per barrel</t>
+  </si>
+  <si>
+    <t>BTU/kcal</t>
+  </si>
+  <si>
+    <t>BTU/kWh (unit conversion, not a heat rate)</t>
+  </si>
+  <si>
+    <t>Energy in Biomass</t>
+  </si>
+  <si>
+    <t>Wood wastes</t>
+  </si>
+  <si>
+    <t>kcal/kg</t>
+  </si>
+  <si>
+    <t>Cowdung</t>
+  </si>
+  <si>
+    <t>Average of biomass fuels</t>
+  </si>
+  <si>
+    <t>BTU/kg</t>
+  </si>
+  <si>
+    <t>BTU/ton</t>
+  </si>
+  <si>
+    <t>Energy in Jet Fuel / Kerosene</t>
+  </si>
+  <si>
+    <t>BTU/barrel</t>
+  </si>
+  <si>
+    <t>BTU/liter</t>
+  </si>
+  <si>
+    <t>Energy in Petroleum Gasoline</t>
+  </si>
+  <si>
+    <t>barrels/ton</t>
+  </si>
+  <si>
+    <t>kcal/barrel</t>
+  </si>
+  <si>
+    <t>Energy in Petroleum Diesel</t>
+  </si>
+  <si>
+    <t>million BTU/barrel</t>
+  </si>
+  <si>
+    <t>million BTU/l</t>
+  </si>
+  <si>
+    <t>BTU/l</t>
+  </si>
+  <si>
+    <t>Energy in LPG</t>
+  </si>
+  <si>
+    <t>kg/cylinder</t>
+  </si>
+  <si>
+    <t>kcal/cylinder</t>
+  </si>
+  <si>
+    <t>BTU/cylinder</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>trillion BTU / billion cubic m</t>
+  </si>
+  <si>
+    <t>BTU / thousand cubic m</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Crude Oil</t>
+  </si>
+  <si>
+    <t>million BTU / bbl</t>
+  </si>
+  <si>
+    <t>BTU / bbl</t>
+  </si>
+  <si>
+    <t>Ethanol - 100%</t>
+  </si>
+  <si>
+    <t>LHV</t>
+  </si>
+  <si>
+    <t>BTU / gal</t>
+  </si>
+  <si>
+    <t>https://afdc.energy.gov/fuels/fuel_comparison_chart.pdf</t>
+  </si>
+  <si>
+    <t>HHV</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>litre/gal</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>CONSUMER CATEGORYWISE AVERAGE TARIFF, A.P 2013-14 (All India Average)</t>
+  </si>
+  <si>
+    <t>Consumer price 
+(overall avg)</t>
+  </si>
+  <si>
+    <t>Industry price</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Agri./Irrig.</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Rly. Traction</t>
+  </si>
+  <si>
+    <t>Outside state</t>
+  </si>
+  <si>
+    <t>Overall Avg.</t>
+  </si>
+  <si>
+    <t>2014 paise/kWh</t>
+  </si>
+  <si>
+    <t>2014 Rs/kWh</t>
+  </si>
+  <si>
+    <t>2014 Rs/BTU</t>
+  </si>
+  <si>
+    <t>2012 Rs/BTU</t>
+  </si>
+  <si>
+    <t>2012 USD/BTU</t>
+  </si>
+  <si>
+    <t>Source: Annual Report on the Working of State Power Utilities &amp; Electricity Departments (2013-14)</t>
+  </si>
+  <si>
+    <t>Annexure 4.27, Page 196</t>
+  </si>
+  <si>
+    <t>Data for v3.0</t>
+  </si>
+  <si>
+    <t>Electricity Price</t>
+  </si>
+  <si>
+    <t>Planning Commission, Government of India</t>
+  </si>
+  <si>
+    <t>Annual Report (2013-14) on the Working of State Power Utilities &amp; Electricity Departments</t>
+  </si>
+  <si>
+    <t>http://planningcommission.nic.in/reports/genrep/rep_arpower0306.pdf</t>
+  </si>
+  <si>
+    <t>Annex 4.27 and 4.29</t>
+  </si>
+  <si>
+    <t>2012 USD/MWH</t>
+  </si>
+  <si>
+    <t>btu to MWH</t>
+  </si>
+  <si>
+    <t>EIaE Imported Electricity Price</t>
+  </si>
+  <si>
+    <t>EIaE BAU Exported Electricity Price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +862,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,6 +905,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +1079,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -790,8 +1101,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -856,9 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -869,13 +1182,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma" xfId="11" builtinId="3"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{AC4E9645-41DD-4DED-8796-49608A7483CB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -4881,6 +5231,2542 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO Table 73"/>
+      <sheetName val="GREET1 Fuel_Specs"/>
+      <sheetName val="BCF-BHCpCOU"/>
+      <sheetName val="BCF-BNGpNGOU"/>
+      <sheetName val="BCF-LFBCF"/>
+      <sheetName val="BCF-BLpCOU"/>
+      <sheetName val="BCF-VFEUCF"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="40">
+          <cell r="A40">
+            <v>42</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="AEO Table 2"/>
+      <sheetName val="AEO Table 3"/>
+      <sheetName val="AEO Table 12"/>
+      <sheetName val="Natural Gas Adjustment"/>
+      <sheetName val="Hard Coal and Lig Multipliers"/>
+      <sheetName val="Hydrogen"/>
+      <sheetName val="Other Fuels"/>
+      <sheetName val="BFCpUEbS-electricity"/>
+      <sheetName val="BFCpUEbS-coal"/>
+      <sheetName val="BFCpUEbS-natural-gas"/>
+      <sheetName val="BFCpUEbS-nuclear"/>
+      <sheetName val="BFCpUEbS-hydro"/>
+      <sheetName val="BFCpUEbS-wind"/>
+      <sheetName val="BFCpUEbS-solar"/>
+      <sheetName val="BFCpUEbS-biomass"/>
+      <sheetName val="BFCpUEbS-petroleum-gasoline"/>
+      <sheetName val="BFCpUEbS-petroleum-diesel"/>
+      <sheetName val="BFCpUEbS-biofuel-gasoline"/>
+      <sheetName val="BFCpUEbS-biofuel-diesel"/>
+      <sheetName val="BFCpUEbS-jet-fuel-or-kerosene"/>
+      <sheetName val="BFCpUEbS-heat"/>
+      <sheetName val="BFCpUEbS-lignite"/>
+      <sheetName val="BFCpUEbS-geothermal"/>
+      <sheetName val="BFCpUEbS-crude-oil"/>
+      <sheetName val="BFCpUEbS-heavy-fuel-oil"/>
+      <sheetName val="BFCpUEbS-lpg-propane-or-butane"/>
+      <sheetName val="BFCpUEbS-municipal-solid-waste"/>
+      <sheetName val="BFCpUEbS-hydrogen"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="16">
+          <cell r="N16">
+            <v>0.92062879123815489</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="N17">
+            <v>1.0036394752510358</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Tax Data&gt;"/>
+      <sheetName val="Petroleum &amp; Diesel Prices"/>
+      <sheetName val="Tax Rates"/>
+      <sheetName val="Electricity Tax Rates"/>
+      <sheetName val="Electricity Tariffs and Consump"/>
+      <sheetName val="Petroleum Products Consumption"/>
+      <sheetName val="NG Sales"/>
+      <sheetName val="Crude Oil Production"/>
+      <sheetName val="Coal &amp; Lignite"/>
+      <sheetName val="Fuel Oil &amp; LPG"/>
+      <sheetName val="Start Year Taxes"/>
+      <sheetName val="Tax_Share of Price"/>
+      <sheetName val="Total Fuel Cost&gt;"/>
+      <sheetName val="Conversion Factors"/>
+      <sheetName val="AEO Table 73"/>
+      <sheetName val="Electricity"/>
+      <sheetName val="Coal and Lignite"/>
+      <sheetName val="Consumption of Coal&amp;Lignite"/>
+      <sheetName val="NE Population"/>
+      <sheetName val="Natural Gas"/>
+      <sheetName val="LPG"/>
+      <sheetName val="Nuclear Fuel"/>
+      <sheetName val="Biomass"/>
+      <sheetName val="Petro Gasoline &amp; Diesel"/>
+      <sheetName val="Bio gasoline"/>
+      <sheetName val="Kerosene"/>
+      <sheetName val="Jet Fuel"/>
+      <sheetName val="Crude Oil"/>
+      <sheetName val="Heavy Fuel Oil"/>
+      <sheetName val="Municipal Solid Waste"/>
+      <sheetName val="Start Year Prices"/>
+      <sheetName val="AEO Table 3"/>
+      <sheetName val="AEO Table 12"/>
+      <sheetName val="Total Fuel Prices"/>
+      <sheetName val="Pretax &gt;"/>
+      <sheetName val="BFPaT-pretax-electricity"/>
+      <sheetName val="BFPaT-pretax-coal"/>
+      <sheetName val="BFPaT-pretax-natgas"/>
+      <sheetName val="BFPaT-pretax-nuclear"/>
+      <sheetName val="BFPaT-pretax-hydro"/>
+      <sheetName val="BFPaT-pretax-wind"/>
+      <sheetName val="BFPaT-pretax-solar"/>
+      <sheetName val="BFPaT-pretax-biomass"/>
+      <sheetName val="BFPaT-pretax-petgas"/>
+      <sheetName val="BFPaT-pretax-petdies"/>
+      <sheetName val="BFPaT-pretax-biogas"/>
+      <sheetName val="BFPaT-pretax-biodies"/>
+      <sheetName val="BFPaT-pretax-jetkerosene"/>
+      <sheetName val="BFPaT-pretax-heat"/>
+      <sheetName val="BFPaT-pretax-lignite"/>
+      <sheetName val="BFPaT-pretax-geothermal"/>
+      <sheetName val="BFPaT-pretax-crude"/>
+      <sheetName val="BFPaT-pretax-heavyfueloil"/>
+      <sheetName val="BFPaT-pretax-lpgpropbut"/>
+      <sheetName val="BFPaT-pretax-msw"/>
+      <sheetName val="BFPaT-pretax-hydrogen"/>
+      <sheetName val="Fuel Tax &gt;"/>
+      <sheetName val="BFPaT-fueltax-electricity"/>
+      <sheetName val="BFPaT-fueltax-coal"/>
+      <sheetName val="BFPaT-fueltax-natgas"/>
+      <sheetName val="BFPaT-fueltax-nuclear"/>
+      <sheetName val="BFPaT-fueltax-hydro"/>
+      <sheetName val="BFPaT-fueltax-wind"/>
+      <sheetName val="BFPaT-fueltax-solar"/>
+      <sheetName val="BFPaT-fueltax-biomass"/>
+      <sheetName val="BFPaT-fueltax-petgas"/>
+      <sheetName val="BFPaT-fueltax-petdies"/>
+      <sheetName val="BFPaT-fueltax-biogas"/>
+      <sheetName val="BFPaT-fueltax-biodies"/>
+      <sheetName val="BFPaT-fueltax-jetkerosene"/>
+      <sheetName val="BFPaT-fueltax-heat"/>
+      <sheetName val="BFPaT-fueltax-lignite"/>
+      <sheetName val="BFPaT-fueltax-geothermal"/>
+      <sheetName val="BFPaT-fueltax-crude"/>
+      <sheetName val="BFPaT-fueltax-heavyfueloil"/>
+      <sheetName val="BFPaT-fueltax-lpgpropbut"/>
+      <sheetName val="BFPaT-fueltax-msw"/>
+      <sheetName val="BFPaT-fueltax-hydrogen"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>electricity</v>
+          </cell>
+          <cell r="B2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="C2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="D2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="E2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="F2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="G2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="H2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="I2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="J2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="K2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="L2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="M2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="N2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="O2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="P2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="Q2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="R2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="S2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="T2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="U2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="V2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="W2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="X2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="Y2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="Z2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AA2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AB2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AC2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AD2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AE2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AF2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AG2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AH2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+          <cell r="AI2">
+            <v>5.5335908619313187E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Coal</v>
+          </cell>
+          <cell r="B3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="C3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="D3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="E3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="F3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="G3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="H3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="I3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="J3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="K3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="L3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="M3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="N3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="O3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="P3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="R3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="S3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="T3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="U3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="V3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="W3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="X3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="Y3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="Z3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AA3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AB3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AC3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AD3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AE3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AF3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AG3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AH3">
+            <v>0.23271342827476171</v>
+          </cell>
+          <cell r="AI3">
+            <v>0.23271342827476171</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>natural gas</v>
+          </cell>
+          <cell r="B4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="C4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="D4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="E4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="F4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="G4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="H4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="I4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="J4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="K4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="L4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="M4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="N4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="O4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="P4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="R4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="S4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="T4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="U4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="V4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="W4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="X4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="Y4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="Z4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AA4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AB4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AC4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AD4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AE4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AF4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AG4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AH4">
+            <v>0.1206258820183351</v>
+          </cell>
+          <cell r="AI4">
+            <v>0.1206258820183351</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>nuclear</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
+          <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
+          <cell r="J5">
+            <v>0</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="L5">
+            <v>0</v>
+          </cell>
+          <cell r="M5">
+            <v>0</v>
+          </cell>
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
+            <v>0</v>
+          </cell>
+          <cell r="P5">
+            <v>0</v>
+          </cell>
+          <cell r="Q5">
+            <v>0</v>
+          </cell>
+          <cell r="R5">
+            <v>0</v>
+          </cell>
+          <cell r="S5">
+            <v>0</v>
+          </cell>
+          <cell r="T5">
+            <v>0</v>
+          </cell>
+          <cell r="U5">
+            <v>0</v>
+          </cell>
+          <cell r="V5">
+            <v>0</v>
+          </cell>
+          <cell r="W5">
+            <v>0</v>
+          </cell>
+          <cell r="X5">
+            <v>0</v>
+          </cell>
+          <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
+            <v>0</v>
+          </cell>
+          <cell r="AA5">
+            <v>0</v>
+          </cell>
+          <cell r="AB5">
+            <v>0</v>
+          </cell>
+          <cell r="AC5">
+            <v>0</v>
+          </cell>
+          <cell r="AD5">
+            <v>0</v>
+          </cell>
+          <cell r="AE5">
+            <v>0</v>
+          </cell>
+          <cell r="AF5">
+            <v>0</v>
+          </cell>
+          <cell r="AG5">
+            <v>0</v>
+          </cell>
+          <cell r="AH5">
+            <v>0</v>
+          </cell>
+          <cell r="AI5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Hydro</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6">
+            <v>0</v>
+          </cell>
+          <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+          <cell r="J6">
+            <v>0</v>
+          </cell>
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+          <cell r="O6">
+            <v>0</v>
+          </cell>
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6">
+            <v>0</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+          <cell r="T6">
+            <v>0</v>
+          </cell>
+          <cell r="U6">
+            <v>0</v>
+          </cell>
+          <cell r="V6">
+            <v>0</v>
+          </cell>
+          <cell r="W6">
+            <v>0</v>
+          </cell>
+          <cell r="X6">
+            <v>0</v>
+          </cell>
+          <cell r="Y6">
+            <v>0</v>
+          </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
+          <cell r="AA6">
+            <v>0</v>
+          </cell>
+          <cell r="AB6">
+            <v>0</v>
+          </cell>
+          <cell r="AC6">
+            <v>0</v>
+          </cell>
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
+            <v>0</v>
+          </cell>
+          <cell r="AF6">
+            <v>0</v>
+          </cell>
+          <cell r="AG6">
+            <v>0</v>
+          </cell>
+          <cell r="AH6">
+            <v>0</v>
+          </cell>
+          <cell r="AI6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Wind</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>0</v>
+          </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
+          <cell r="J7">
+            <v>0</v>
+          </cell>
+          <cell r="K7">
+            <v>0</v>
+          </cell>
+          <cell r="L7">
+            <v>0</v>
+          </cell>
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+          <cell r="O7">
+            <v>0</v>
+          </cell>
+          <cell r="P7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>0</v>
+          </cell>
+          <cell r="U7">
+            <v>0</v>
+          </cell>
+          <cell r="V7">
+            <v>0</v>
+          </cell>
+          <cell r="W7">
+            <v>0</v>
+          </cell>
+          <cell r="X7">
+            <v>0</v>
+          </cell>
+          <cell r="Y7">
+            <v>0</v>
+          </cell>
+          <cell r="Z7">
+            <v>0</v>
+          </cell>
+          <cell r="AA7">
+            <v>0</v>
+          </cell>
+          <cell r="AB7">
+            <v>0</v>
+          </cell>
+          <cell r="AC7">
+            <v>0</v>
+          </cell>
+          <cell r="AD7">
+            <v>0</v>
+          </cell>
+          <cell r="AE7">
+            <v>0</v>
+          </cell>
+          <cell r="AF7">
+            <v>0</v>
+          </cell>
+          <cell r="AG7">
+            <v>0</v>
+          </cell>
+          <cell r="AH7">
+            <v>0</v>
+          </cell>
+          <cell r="AI7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Solar</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
+          <cell r="J8">
+            <v>0</v>
+          </cell>
+          <cell r="K8">
+            <v>0</v>
+          </cell>
+          <cell r="L8">
+            <v>0</v>
+          </cell>
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+          <cell r="O8">
+            <v>0</v>
+          </cell>
+          <cell r="P8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>0</v>
+          </cell>
+          <cell r="U8">
+            <v>0</v>
+          </cell>
+          <cell r="V8">
+            <v>0</v>
+          </cell>
+          <cell r="W8">
+            <v>0</v>
+          </cell>
+          <cell r="X8">
+            <v>0</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>0</v>
+          </cell>
+          <cell r="AA8">
+            <v>0</v>
+          </cell>
+          <cell r="AB8">
+            <v>0</v>
+          </cell>
+          <cell r="AC8">
+            <v>0</v>
+          </cell>
+          <cell r="AD8">
+            <v>0</v>
+          </cell>
+          <cell r="AE8">
+            <v>0</v>
+          </cell>
+          <cell r="AF8">
+            <v>0</v>
+          </cell>
+          <cell r="AG8">
+            <v>0</v>
+          </cell>
+          <cell r="AH8">
+            <v>0</v>
+          </cell>
+          <cell r="AI8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>biomass</v>
+          </cell>
+          <cell r="B9">
+            <v>0.05</v>
+          </cell>
+          <cell r="C9">
+            <v>0.05</v>
+          </cell>
+          <cell r="D9">
+            <v>0.05</v>
+          </cell>
+          <cell r="E9">
+            <v>0.05</v>
+          </cell>
+          <cell r="F9">
+            <v>0.05</v>
+          </cell>
+          <cell r="G9">
+            <v>0.05</v>
+          </cell>
+          <cell r="H9">
+            <v>0.05</v>
+          </cell>
+          <cell r="I9">
+            <v>0.05</v>
+          </cell>
+          <cell r="J9">
+            <v>0.05</v>
+          </cell>
+          <cell r="K9">
+            <v>0.05</v>
+          </cell>
+          <cell r="L9">
+            <v>0.05</v>
+          </cell>
+          <cell r="M9">
+            <v>0.05</v>
+          </cell>
+          <cell r="N9">
+            <v>0.05</v>
+          </cell>
+          <cell r="O9">
+            <v>0.05</v>
+          </cell>
+          <cell r="P9">
+            <v>0.05</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.05</v>
+          </cell>
+          <cell r="R9">
+            <v>0.05</v>
+          </cell>
+          <cell r="S9">
+            <v>0.05</v>
+          </cell>
+          <cell r="T9">
+            <v>0.05</v>
+          </cell>
+          <cell r="U9">
+            <v>0.05</v>
+          </cell>
+          <cell r="V9">
+            <v>0.05</v>
+          </cell>
+          <cell r="W9">
+            <v>0.05</v>
+          </cell>
+          <cell r="X9">
+            <v>0.05</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.05</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AD9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AF9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AG9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AH9">
+            <v>0.05</v>
+          </cell>
+          <cell r="AI9">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>petroleum gasoline</v>
+          </cell>
+          <cell r="B10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="C10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="D10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="E10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="F10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="G10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="H10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="I10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="J10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="K10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="L10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="M10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="N10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="O10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="P10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="R10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="S10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="T10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="U10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="V10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="W10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="X10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AD10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AE10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AF10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AG10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AH10">
+            <v>0.49136152656008247</v>
+          </cell>
+          <cell r="AI10">
+            <v>0.49136152656008247</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>petroleum diesel</v>
+          </cell>
+          <cell r="B11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="C11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="D11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="E11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="F11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="G11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="H11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="I11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="J11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="K11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="L11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="M11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="N11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="O11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="P11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="R11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="S11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="T11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="U11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="V11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="W11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="X11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="Y11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="Z11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AA11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AB11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AD11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AE11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AF11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AG11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AH11">
+            <v>0.37339233854238696</v>
+          </cell>
+          <cell r="AI11">
+            <v>0.37339233854238696</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>biofuel gasoline</v>
+          </cell>
+          <cell r="B12">
+            <v>0.05</v>
+          </cell>
+          <cell r="C12">
+            <v>0.05</v>
+          </cell>
+          <cell r="D12">
+            <v>0.05</v>
+          </cell>
+          <cell r="E12">
+            <v>0.05</v>
+          </cell>
+          <cell r="F12">
+            <v>0.05</v>
+          </cell>
+          <cell r="G12">
+            <v>0.05</v>
+          </cell>
+          <cell r="H12">
+            <v>0.05</v>
+          </cell>
+          <cell r="I12">
+            <v>0.05</v>
+          </cell>
+          <cell r="J12">
+            <v>0.05</v>
+          </cell>
+          <cell r="K12">
+            <v>0.05</v>
+          </cell>
+          <cell r="L12">
+            <v>0.05</v>
+          </cell>
+          <cell r="M12">
+            <v>0.05</v>
+          </cell>
+          <cell r="N12">
+            <v>0.05</v>
+          </cell>
+          <cell r="O12">
+            <v>0.05</v>
+          </cell>
+          <cell r="P12">
+            <v>0.05</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.05</v>
+          </cell>
+          <cell r="R12">
+            <v>0.05</v>
+          </cell>
+          <cell r="S12">
+            <v>0.05</v>
+          </cell>
+          <cell r="T12">
+            <v>0.05</v>
+          </cell>
+          <cell r="U12">
+            <v>0.05</v>
+          </cell>
+          <cell r="V12">
+            <v>0.05</v>
+          </cell>
+          <cell r="W12">
+            <v>0.05</v>
+          </cell>
+          <cell r="X12">
+            <v>0.05</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.05</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AD12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AF12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AG12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AH12">
+            <v>0.05</v>
+          </cell>
+          <cell r="AI12">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>biofuel diesel</v>
+          </cell>
+          <cell r="B13">
+            <v>0.05</v>
+          </cell>
+          <cell r="C13">
+            <v>0.05</v>
+          </cell>
+          <cell r="D13">
+            <v>0.05</v>
+          </cell>
+          <cell r="E13">
+            <v>0.05</v>
+          </cell>
+          <cell r="F13">
+            <v>0.05</v>
+          </cell>
+          <cell r="G13">
+            <v>0.05</v>
+          </cell>
+          <cell r="H13">
+            <v>0.05</v>
+          </cell>
+          <cell r="I13">
+            <v>0.05</v>
+          </cell>
+          <cell r="J13">
+            <v>0.05</v>
+          </cell>
+          <cell r="K13">
+            <v>0.05</v>
+          </cell>
+          <cell r="L13">
+            <v>0.05</v>
+          </cell>
+          <cell r="M13">
+            <v>0.05</v>
+          </cell>
+          <cell r="N13">
+            <v>0.05</v>
+          </cell>
+          <cell r="O13">
+            <v>0.05</v>
+          </cell>
+          <cell r="P13">
+            <v>0.05</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.05</v>
+          </cell>
+          <cell r="R13">
+            <v>0.05</v>
+          </cell>
+          <cell r="S13">
+            <v>0.05</v>
+          </cell>
+          <cell r="T13">
+            <v>0.05</v>
+          </cell>
+          <cell r="U13">
+            <v>0.05</v>
+          </cell>
+          <cell r="V13">
+            <v>0.05</v>
+          </cell>
+          <cell r="W13">
+            <v>0.05</v>
+          </cell>
+          <cell r="X13">
+            <v>0.05</v>
+          </cell>
+          <cell r="Y13">
+            <v>0.05</v>
+          </cell>
+          <cell r="Z13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AA13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AB13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AC13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AD13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AF13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AG13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AH13">
+            <v>0.05</v>
+          </cell>
+          <cell r="AI13">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Jet Fuel or Kerosene</v>
+          </cell>
+          <cell r="B14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="C14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="D14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="E14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="F14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="G14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="H14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="I14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="J14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="K14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="L14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="M14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="N14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="O14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="P14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="Q14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="R14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="S14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="T14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="U14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="V14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="W14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="X14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="Y14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="Z14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AA14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AB14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AC14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AD14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AE14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AF14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AG14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AH14">
+            <v>0.10387508175277957</v>
+          </cell>
+          <cell r="AI14">
+            <v>0.10387508175277957</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>heat</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>0</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+          <cell r="N15">
+            <v>0</v>
+          </cell>
+          <cell r="O15">
+            <v>0</v>
+          </cell>
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+          <cell r="Q15">
+            <v>0</v>
+          </cell>
+          <cell r="R15">
+            <v>0</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>0</v>
+          </cell>
+          <cell r="U15">
+            <v>0</v>
+          </cell>
+          <cell r="V15">
+            <v>0</v>
+          </cell>
+          <cell r="W15">
+            <v>0</v>
+          </cell>
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+          <cell r="Z15">
+            <v>0</v>
+          </cell>
+          <cell r="AA15">
+            <v>0</v>
+          </cell>
+          <cell r="AB15">
+            <v>0</v>
+          </cell>
+          <cell r="AC15">
+            <v>0</v>
+          </cell>
+          <cell r="AD15">
+            <v>0</v>
+          </cell>
+          <cell r="AE15">
+            <v>0</v>
+          </cell>
+          <cell r="AF15">
+            <v>0</v>
+          </cell>
+          <cell r="AG15">
+            <v>0</v>
+          </cell>
+          <cell r="AH15">
+            <v>0</v>
+          </cell>
+          <cell r="AI15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Geothermal</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>0</v>
+          </cell>
+          <cell r="L16">
+            <v>0</v>
+          </cell>
+          <cell r="M16">
+            <v>0</v>
+          </cell>
+          <cell r="N16">
+            <v>0</v>
+          </cell>
+          <cell r="O16">
+            <v>0</v>
+          </cell>
+          <cell r="P16">
+            <v>0</v>
+          </cell>
+          <cell r="Q16">
+            <v>0</v>
+          </cell>
+          <cell r="R16">
+            <v>0</v>
+          </cell>
+          <cell r="S16">
+            <v>0</v>
+          </cell>
+          <cell r="T16">
+            <v>0</v>
+          </cell>
+          <cell r="U16">
+            <v>0</v>
+          </cell>
+          <cell r="V16">
+            <v>0</v>
+          </cell>
+          <cell r="W16">
+            <v>0</v>
+          </cell>
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
+          </cell>
+          <cell r="Z16">
+            <v>0</v>
+          </cell>
+          <cell r="AA16">
+            <v>0</v>
+          </cell>
+          <cell r="AB16">
+            <v>0</v>
+          </cell>
+          <cell r="AC16">
+            <v>0</v>
+          </cell>
+          <cell r="AD16">
+            <v>0</v>
+          </cell>
+          <cell r="AE16">
+            <v>0</v>
+          </cell>
+          <cell r="AF16">
+            <v>0</v>
+          </cell>
+          <cell r="AG16">
+            <v>0</v>
+          </cell>
+          <cell r="AH16">
+            <v>0</v>
+          </cell>
+          <cell r="AI16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>lignite</v>
+          </cell>
+          <cell r="B17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="C17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="D17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="E17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="F17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="G17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="H17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="I17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="J17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="K17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="L17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="M17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="N17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="O17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="P17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="R17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="S17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="T17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="U17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="V17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="W17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="X17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="Z17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AA17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AB17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AC17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AD17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AE17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AF17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AG17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AH17">
+            <v>0.19727706611116066</v>
+          </cell>
+          <cell r="AI17">
+            <v>0.19727706611116066</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>crude oil</v>
+          </cell>
+          <cell r="B18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="C18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="D18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="E18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="F18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="G18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="H18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="I18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="J18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="K18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="L18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="M18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="N18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="O18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="P18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="Q18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="R18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="S18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="T18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="U18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="V18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="W18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="X18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="Y18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="Z18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AA18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AB18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AC18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AD18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AE18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AF18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AG18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AH18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+          <cell r="AI18">
+            <v>4.9553227013645E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>heavy fuel oil</v>
+          </cell>
+          <cell r="B19">
+            <v>0.18</v>
+          </cell>
+          <cell r="C19">
+            <v>0.18</v>
+          </cell>
+          <cell r="D19">
+            <v>0.18</v>
+          </cell>
+          <cell r="E19">
+            <v>0.18</v>
+          </cell>
+          <cell r="F19">
+            <v>0.18</v>
+          </cell>
+          <cell r="G19">
+            <v>0.18</v>
+          </cell>
+          <cell r="H19">
+            <v>0.18</v>
+          </cell>
+          <cell r="I19">
+            <v>0.18</v>
+          </cell>
+          <cell r="J19">
+            <v>0.18</v>
+          </cell>
+          <cell r="K19">
+            <v>0.18</v>
+          </cell>
+          <cell r="L19">
+            <v>0.18</v>
+          </cell>
+          <cell r="M19">
+            <v>0.18</v>
+          </cell>
+          <cell r="N19">
+            <v>0.18</v>
+          </cell>
+          <cell r="O19">
+            <v>0.18</v>
+          </cell>
+          <cell r="P19">
+            <v>0.18</v>
+          </cell>
+          <cell r="Q19">
+            <v>0.18</v>
+          </cell>
+          <cell r="R19">
+            <v>0.18</v>
+          </cell>
+          <cell r="S19">
+            <v>0.18</v>
+          </cell>
+          <cell r="T19">
+            <v>0.18</v>
+          </cell>
+          <cell r="U19">
+            <v>0.18</v>
+          </cell>
+          <cell r="V19">
+            <v>0.18</v>
+          </cell>
+          <cell r="W19">
+            <v>0.18</v>
+          </cell>
+          <cell r="X19">
+            <v>0.18</v>
+          </cell>
+          <cell r="Y19">
+            <v>0.18</v>
+          </cell>
+          <cell r="Z19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AA19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AB19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AC19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AD19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AE19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AF19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AG19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AH19">
+            <v>0.18</v>
+          </cell>
+          <cell r="AI19">
+            <v>0.18</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>LPG propane or butane</v>
+          </cell>
+          <cell r="B20">
+            <v>0.05</v>
+          </cell>
+          <cell r="C20">
+            <v>0.05</v>
+          </cell>
+          <cell r="D20">
+            <v>0.05</v>
+          </cell>
+          <cell r="E20">
+            <v>0.05</v>
+          </cell>
+          <cell r="F20">
+            <v>0.05</v>
+          </cell>
+          <cell r="G20">
+            <v>0.05</v>
+          </cell>
+          <cell r="H20">
+            <v>0.05</v>
+          </cell>
+          <cell r="I20">
+            <v>0.05</v>
+          </cell>
+          <cell r="J20">
+            <v>0.05</v>
+          </cell>
+          <cell r="K20">
+            <v>0.05</v>
+          </cell>
+          <cell r="L20">
+            <v>0.05</v>
+          </cell>
+          <cell r="M20">
+            <v>0.05</v>
+          </cell>
+          <cell r="N20">
+            <v>0.05</v>
+          </cell>
+          <cell r="O20">
+            <v>0.05</v>
+          </cell>
+          <cell r="P20">
+            <v>0.05</v>
+          </cell>
+          <cell r="Q20">
+            <v>0.05</v>
+          </cell>
+          <cell r="R20">
+            <v>0.05</v>
+          </cell>
+          <cell r="S20">
+            <v>0.05</v>
+          </cell>
+          <cell r="T20">
+            <v>0.05</v>
+          </cell>
+          <cell r="U20">
+            <v>0.05</v>
+          </cell>
+          <cell r="V20">
+            <v>0.05</v>
+          </cell>
+          <cell r="W20">
+            <v>0.05</v>
+          </cell>
+          <cell r="X20">
+            <v>0.05</v>
+          </cell>
+          <cell r="Y20">
+            <v>0.05</v>
+          </cell>
+          <cell r="Z20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AA20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AB20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AC20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AD20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AE20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AF20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AG20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AH20">
+            <v>0.05</v>
+          </cell>
+          <cell r="AI20">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>municipal solid waste</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>0</v>
+          </cell>
+          <cell r="L21">
+            <v>0</v>
+          </cell>
+          <cell r="M21">
+            <v>0</v>
+          </cell>
+          <cell r="N21">
+            <v>0</v>
+          </cell>
+          <cell r="O21">
+            <v>0</v>
+          </cell>
+          <cell r="P21">
+            <v>0</v>
+          </cell>
+          <cell r="Q21">
+            <v>0</v>
+          </cell>
+          <cell r="R21">
+            <v>0</v>
+          </cell>
+          <cell r="S21">
+            <v>0</v>
+          </cell>
+          <cell r="T21">
+            <v>0</v>
+          </cell>
+          <cell r="U21">
+            <v>0</v>
+          </cell>
+          <cell r="V21">
+            <v>0</v>
+          </cell>
+          <cell r="W21">
+            <v>0</v>
+          </cell>
+          <cell r="X21">
+            <v>0</v>
+          </cell>
+          <cell r="Y21">
+            <v>0</v>
+          </cell>
+          <cell r="Z21">
+            <v>0</v>
+          </cell>
+          <cell r="AA21">
+            <v>0</v>
+          </cell>
+          <cell r="AB21">
+            <v>0</v>
+          </cell>
+          <cell r="AC21">
+            <v>0</v>
+          </cell>
+          <cell r="AD21">
+            <v>0</v>
+          </cell>
+          <cell r="AE21">
+            <v>0</v>
+          </cell>
+          <cell r="AF21">
+            <v>0</v>
+          </cell>
+          <cell r="AG21">
+            <v>0</v>
+          </cell>
+          <cell r="AH21">
+            <v>0</v>
+          </cell>
+          <cell r="AI21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>hydrogen</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>0</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>0</v>
+          </cell>
+          <cell r="L22">
+            <v>0</v>
+          </cell>
+          <cell r="M22">
+            <v>0</v>
+          </cell>
+          <cell r="N22">
+            <v>0</v>
+          </cell>
+          <cell r="O22">
+            <v>0</v>
+          </cell>
+          <cell r="P22">
+            <v>0</v>
+          </cell>
+          <cell r="Q22">
+            <v>0</v>
+          </cell>
+          <cell r="R22">
+            <v>0</v>
+          </cell>
+          <cell r="S22">
+            <v>0</v>
+          </cell>
+          <cell r="T22">
+            <v>0</v>
+          </cell>
+          <cell r="U22">
+            <v>0</v>
+          </cell>
+          <cell r="V22">
+            <v>0</v>
+          </cell>
+          <cell r="W22">
+            <v>0</v>
+          </cell>
+          <cell r="X22">
+            <v>0</v>
+          </cell>
+          <cell r="Y22">
+            <v>0</v>
+          </cell>
+          <cell r="Z22">
+            <v>0</v>
+          </cell>
+          <cell r="AA22">
+            <v>0</v>
+          </cell>
+          <cell r="AB22">
+            <v>0</v>
+          </cell>
+          <cell r="AC22">
+            <v>0</v>
+          </cell>
+          <cell r="AD22">
+            <v>0</v>
+          </cell>
+          <cell r="AE22">
+            <v>0</v>
+          </cell>
+          <cell r="AF22">
+            <v>0</v>
+          </cell>
+          <cell r="AG22">
+            <v>0</v>
+          </cell>
+          <cell r="AH22">
+            <v>0</v>
+          </cell>
+          <cell r="AI22">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
+        <row r="8">
+          <cell r="C8">
+            <v>1.1552501799999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5202,215 +8088,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="6" max="6" width="73.42578125" customWidth="1"/>
+    <col min="2" max="2" width="55.73046875" customWidth="1"/>
+    <col min="6" max="6" width="73.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B6" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F6" s="36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F7" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="F13" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="F14" s="57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="F15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="F16" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F18" s="42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{A7B237D3-DE0F-463C-AB5E-18E3F8C336D3}"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{A7B237D3-DE0F-463C-AB5E-18E3F8C336D3}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{2752871D-DFCD-4735-9E0C-D6B62EA7A9AA}"/>
+    <hyperlink ref="F18" r:id="rId5" xr:uid="{F9B84DFD-52C2-46E9-B423-5B8C64D36D67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECDA754-5262-4116-9F39-CFBC5FF36429}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AK2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.265625" customWidth="1"/>
+    <col min="2" max="3" width="12.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="40">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="40">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="C2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="D2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="E2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="F2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="G2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="H2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="I2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="J2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="K2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="L2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="M2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="N2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="O2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="P2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="Q2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="R2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="S2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="T2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="U2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="V2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="W2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="X2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="Y2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="Z2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AA2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AB2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AC2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AD2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AE2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AF2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AG2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AH2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AI2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5418,18 +8614,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -5443,32 +8639,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -5477,7 +8673,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -5486,7 +8682,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5495,7 +8691,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -5504,7 +8700,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -5513,7 +8709,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5530,7 +8726,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -5547,12 +8743,12 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
@@ -5560,7 +8756,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -5571,7 +8767,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -5582,7 +8778,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -5593,7 +8789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -5604,7 +8800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -5615,7 +8811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -5626,7 +8822,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -5637,7 +8833,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -5648,7 +8844,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -5659,7 +8855,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -5670,7 +8866,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>2006</v>
       </c>
@@ -5705,7 +8901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>35</v>
       </c>
@@ -5747,7 +8943,7 @@
         <v>1.77341900574907</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
@@ -5790,17 +8986,17 @@
         <v>23.842592592592592</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
         <v>29</v>
       </c>
@@ -5814,7 +9010,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -5841,7 +9037,7 @@
         <v>16.276041375755312</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -5860,7 +9056,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
@@ -5883,7 +9079,7 @@
         <v>4.5175438596491224</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>2006</v>
       </c>
@@ -5969,7 +9165,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -6074,7 +9270,7 @@
         <v>11902.336954428567</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>30</v>
       </c>
@@ -6179,12 +9375,12 @@
         <v>80418.731631301926</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -6208,19 +9404,19 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2017</v>
       </c>
@@ -6324,7 +9520,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -6465,7 +9661,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -6606,7 +9802,7 @@
         <v>135843000</v>
       </c>
     </row>
-    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.45">
       <c r="Q23" s="16">
         <v>2017</v>
       </c>
@@ -6632,7 +9828,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.45">
       <c r="K24" t="s">
         <v>66</v>
       </c>
@@ -6665,7 +9861,7 @@
         <v>7.4301173220855166</v>
       </c>
     </row>
-    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.45">
       <c r="P25" t="s">
         <v>62</v>
       </c>
@@ -6695,12 +9891,12 @@
         <v>4.0012955326567123</v>
       </c>
     </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.45">
       <c r="J27" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.45">
       <c r="K28">
         <v>2006</v>
       </c>
@@ -6837,7 +10033,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.45">
       <c r="J29" s="7" t="s">
         <v>29</v>
       </c>
@@ -7010,7 +10206,7 @@
         <v>59731.018369680831</v>
       </c>
     </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.45">
       <c r="J30" s="7" t="s">
         <v>30</v>
       </c>
@@ -7183,7 +10379,7 @@
         <v>26290.094148363216</v>
       </c>
     </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>2017</v>
       </c>
@@ -7287,7 +10483,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -7428,7 +10624,7 @@
         <v>59731018.369680829</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -7569,12 +10765,12 @@
         <v>26290094.148363218</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -7715,7 +10911,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -7866,16 +11062,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124CAFB5-B377-457D-BB7F-D13F867419D0}">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
@@ -7884,36 +11080,36 @@
     <col min="32" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="30" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="36" t="s">
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
@@ -7935,10 +11131,10 @@
       <c r="G3" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2015</v>
       </c>
@@ -7960,16 +11156,16 @@
       <c r="G4" s="21">
         <v>3</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="34">
         <f>SUM(E4:G4)*1000</f>
         <v>5001000</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="34">
         <f>SUM(B4:D4)*1000</f>
         <v>4908000</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2020</v>
       </c>
@@ -7991,16 +11187,16 @@
       <c r="G5" s="21">
         <v>1890</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="34">
         <f t="shared" ref="H5:H10" si="0">SUM(E5:G5)*1000</f>
         <v>17282000</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="34">
         <f t="shared" ref="I5:I10" si="1">SUM(B5:D5)*1000</f>
         <v>10447000</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>2025</v>
       </c>
@@ -8022,16 +11218,16 @@
       <c r="G6" s="21">
         <v>40371</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>86830000</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="34">
         <f t="shared" si="1"/>
         <v>26294000</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>2030</v>
       </c>
@@ -8053,16 +11249,16 @@
       <c r="G7" s="21">
         <v>72478</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>169630000</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <f t="shared" si="1"/>
         <v>27896000</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>2035</v>
       </c>
@@ -8084,16 +11280,16 @@
       <c r="G8" s="21">
         <v>99043</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>217426000</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="34">
         <f t="shared" si="1"/>
         <v>50785000</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2040</v>
       </c>
@@ -8115,16 +11311,16 @@
       <c r="G9" s="21">
         <v>126050</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>244433000</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="34">
         <f t="shared" si="1"/>
         <v>73025000</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>2045</v>
       </c>
@@ -8146,16 +11342,16 @@
       <c r="G10" s="21">
         <v>135680</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <f t="shared" si="0"/>
         <v>254063000</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="35">
         <f t="shared" si="1"/>
         <v>104434000</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
         <v>92</v>
       </c>
@@ -8178,12 +11374,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A12" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -8296,7 +11492,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -8445,7 +11641,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -8594,13 +11790,13 @@
         <v>135843000</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="37" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8615,6 +11811,1028 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1905A6A-4F51-49E2-B816-CC1198AEF2C0}">
+  <dimension ref="A1:N78"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="21.265625" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="E1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="E2" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="C4" s="43">
+        <v>0.84470208721577789</v>
+      </c>
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4">
+        <v>1.0529130131709286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.8995232526760818</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5">
+        <v>1.0206944993976144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="9">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1.0912999999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7">
+        <v>0.98556385942470071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="C8" s="43">
+        <v>1.1552501799999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8">
+        <v>0.96983137334414704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="C9" s="43">
+        <v>1.2282619913759998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9">
+        <v>0.9686815713640794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.23E-2</v>
+      </c>
+      <c r="C10" s="43">
+        <v>1.2556522337836846</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>0.95661376543184151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="C11" s="43">
+        <v>1.3058783231350322</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11">
+        <v>0.93665959530026111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="9">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="C12" s="43">
+        <f t="shared" ref="C12:C13" si="0">C11*(1+B12)</f>
+        <v>1.3743063472673078</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12">
+        <v>0.9143273584567535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="9">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="C13" s="43">
+        <f t="shared" si="0"/>
+        <v>1.4795782134679836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2010</v>
+      </c>
+      <c r="B15">
+        <v>44.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2011</v>
+      </c>
+      <c r="B16">
+        <v>53.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17">
+        <v>54.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="B18">
+        <v>61.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2014</v>
+      </c>
+      <c r="B19">
+        <v>63.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2015</v>
+      </c>
+      <c r="B20">
+        <v>66.319999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2016</v>
+      </c>
+      <c r="B21">
+        <v>67.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25">
+        <v>158.9873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26">
+        <v>3.9656699999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27">
+        <v>3412.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="47">
+        <v>2.9307099999999999E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <f>AVERAGE(2500,3850)</f>
+        <v>3175</v>
+      </c>
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(3140,3290)</f>
+        <v>3215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B31:B32)</f>
+        <v>3195</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="43">
+        <v>3.9656699999999998</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="46">
+        <f>B33*B34</f>
+        <v>12670.315649999999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="47">
+        <f>B35*1000</f>
+        <v>12670315.649999999</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>5670000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="46">
+        <f>B39/B25</f>
+        <v>35663.225930624649</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>10700</v>
+      </c>
+      <c r="C43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="47">
+        <f>B43*1000/B44</f>
+        <v>1254396.248534584</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="47">
+        <f>B45*B26</f>
+        <v>4974521.5709261429</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="47">
+        <f>B46/B25</f>
+        <v>31288.798356385338</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <f>B50/B25</f>
+        <v>3.6587828084381581E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="47">
+        <f>B51*10^6</f>
+        <v>36587.828084381581</v>
+      </c>
+      <c r="C52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="47"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="41"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>14.2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>11300</v>
+      </c>
+      <c r="C56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <f>B55*B56</f>
+        <v>160460</v>
+      </c>
+      <c r="C57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="47">
+        <f>B57*B26</f>
+        <v>636331.40819999995</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <f>B61*10^6</f>
+        <v>36000000</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B65">
+        <v>6500</v>
+      </c>
+      <c r="C65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B66">
+        <f>B26*B65</f>
+        <v>25776.855</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B67">
+        <f>B66*1000</f>
+        <v>25776855</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <v>5.8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B71">
+        <f>B70*10^6</f>
+        <v>5800000</v>
+      </c>
+      <c r="C71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="49">
+        <v>76330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="49">
+        <v>84530</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="49">
+        <f>AVERAGE(B74:B75)</f>
+        <v>80430</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B77">
+        <v>3.7854100000000002</v>
+      </c>
+      <c r="C77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B78" s="46">
+        <f>B76/B77</f>
+        <v>21247.36818468805</v>
+      </c>
+      <c r="C78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7278A2E2-B123-4EA8-8AA3-AF7F90EC5587}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>479.84</v>
+      </c>
+      <c r="B4">
+        <v>625.89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="53">
+        <v>407.84</v>
+      </c>
+      <c r="F4" s="53">
+        <v>764</v>
+      </c>
+      <c r="G4" s="53">
+        <v>183.06</v>
+      </c>
+      <c r="H4" s="53">
+        <v>625.89</v>
+      </c>
+      <c r="I4" s="53">
+        <v>663.85</v>
+      </c>
+      <c r="J4" s="53">
+        <v>325.01</v>
+      </c>
+      <c r="K4" s="53">
+        <v>479.84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f>A4/100</f>
+        <v>4.7984</v>
+      </c>
+      <c r="B5">
+        <f>B4/100</f>
+        <v>6.2588999999999997</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="53">
+        <f>E4/100</f>
+        <v>4.0783999999999994</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" ref="F5:K5" si="0">F4/100</f>
+        <v>7.64</v>
+      </c>
+      <c r="G5" s="53">
+        <f t="shared" si="0"/>
+        <v>1.8306</v>
+      </c>
+      <c r="H5" s="53">
+        <f t="shared" si="0"/>
+        <v>6.2588999999999997</v>
+      </c>
+      <c r="I5" s="53">
+        <f t="shared" si="0"/>
+        <v>6.6385000000000005</v>
+      </c>
+      <c r="J5" s="53">
+        <f t="shared" si="0"/>
+        <v>3.2500999999999998</v>
+      </c>
+      <c r="K5" s="53">
+        <f t="shared" si="0"/>
+        <v>4.7984</v>
+      </c>
+      <c r="L5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="54">
+        <f>A5/'Conversion Factors'!$B$27</f>
+        <v>1.4062728961883159E-3</v>
+      </c>
+      <c r="B6" s="54">
+        <f>B5/'Conversion Factors'!$B$27</f>
+        <v>1.8343033990398988E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="55">
+        <f>E5/'Conversion Factors'!$B$27</f>
+        <v>1.1952616246695622E-3</v>
+      </c>
+      <c r="F6" s="55">
+        <f>F5/'Conversion Factors'!$B$27</f>
+        <v>2.23906404778233E-3</v>
+      </c>
+      <c r="G6" s="55">
+        <f>G5/'Conversion Factors'!$B$27</f>
+        <v>5.3649615783643112E-4</v>
+      </c>
+      <c r="H6" s="55">
+        <f>H5/'Conversion Factors'!$B$27</f>
+        <v>1.8343033990398988E-3</v>
+      </c>
+      <c r="I6" s="55">
+        <f>I5/'Conversion Factors'!$B$27</f>
+        <v>1.9455532305239528E-3</v>
+      </c>
+      <c r="J6" s="55">
+        <f>J5/'Conversion Factors'!$B$27</f>
+        <v>9.5251074105986273E-4</v>
+      </c>
+      <c r="K6" s="55">
+        <f>K5/'Conversion Factors'!$B$27</f>
+        <v>1.4062728961883159E-3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="54">
+        <f>A6/'Conversion Factors'!$C$8</f>
+        <v>1.2172886189797574E-3</v>
+      </c>
+      <c r="B7" s="54">
+        <f>B6/'Conversion Factors'!$C$8</f>
+        <v>1.5877975444590702E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="55">
+        <f>E6/'Conversion Factors'!$C$8</f>
+        <v>1.0346344414069359E-3</v>
+      </c>
+      <c r="F7" s="55">
+        <f>F6/'Conversion Factors'!$C$8</f>
+        <v>1.9381637731338247E-3</v>
+      </c>
+      <c r="G7" s="55">
+        <f>G6/'Conversion Factors'!$C$8</f>
+        <v>4.6439824647889787E-4</v>
+      </c>
+      <c r="H7" s="55">
+        <f>H6/'Conversion Factors'!$C$8</f>
+        <v>1.5877975444590702E-3</v>
+      </c>
+      <c r="I7" s="55">
+        <f>I6/'Conversion Factors'!$C$8</f>
+        <v>1.6840968858571855E-3</v>
+      </c>
+      <c r="J7" s="55">
+        <f>J6/'Conversion Factors'!$C$8</f>
+        <v>8.2450603129086966E-4</v>
+      </c>
+      <c r="K7" s="55">
+        <f>K6/'Conversion Factors'!$C$8</f>
+        <v>1.2172886189797574E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="54">
+        <f>A7/'Conversion Factors'!$B$19</f>
+        <v>1.9221358265904903E-5</v>
+      </c>
+      <c r="B8" s="54">
+        <f>B7/'Conversion Factors'!$B$19</f>
+        <v>2.5071807112885997E-5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="55">
+        <f>E7/'Conversion Factors'!$B$19</f>
+        <v>1.6337193137643075E-5</v>
+      </c>
+      <c r="F8" s="55">
+        <f>F7/'Conversion Factors'!$B$19</f>
+        <v>3.0604196638778218E-5</v>
+      </c>
+      <c r="G8" s="55">
+        <f>G7/'Conversion Factors'!$B$19</f>
+        <v>7.3329898386056825E-6</v>
+      </c>
+      <c r="H8" s="55">
+        <f>H7/'Conversion Factors'!$B$19</f>
+        <v>2.5071807112885997E-5</v>
+      </c>
+      <c r="I8" s="55">
+        <f>I7/'Conversion Factors'!$B$19</f>
+        <v>2.659240306106404E-5</v>
+      </c>
+      <c r="J8" s="55">
+        <f>J7/'Conversion Factors'!$B$19</f>
+        <v>1.3019201504671873E-5</v>
+      </c>
+      <c r="K8" s="55">
+        <f>K7/'Conversion Factors'!$B$19</f>
+        <v>1.9221358265904903E-5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E10" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="K10" s="47"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E11" s="56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K12" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K13" s="58">
+        <f>K8*(1/'Conversion Factors'!B28)</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="L13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -8622,15 +12840,15 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:AI5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.1328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>71</v>
       </c>
@@ -8737,7 +12955,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -8844,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -8951,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -9058,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -9199,7 +13417,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -9306,7 +13524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -9413,7 +13631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -9520,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -9627,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -9734,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
@@ -9841,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -9948,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
@@ -10055,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
@@ -10162,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -10269,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -10376,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
@@ -10488,7 +14706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -10496,22 +14714,293 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>'IRADe-BBIN study'!D16</f>
+        <v>7123600</v>
+      </c>
+      <c r="C2">
+        <f>'IRADe-BBIN study'!E16</f>
+        <v>8231400</v>
+      </c>
+      <c r="D2">
+        <f>'IRADe-BBIN study'!F16</f>
+        <v>9339200</v>
+      </c>
+      <c r="E2">
+        <f>'IRADe-BBIN study'!G16</f>
+        <v>10447000</v>
+      </c>
+      <c r="F2">
+        <f>'IRADe-BBIN study'!H16</f>
+        <v>13616400</v>
+      </c>
+      <c r="G2">
+        <f>'IRADe-BBIN study'!I16</f>
+        <v>16785800</v>
+      </c>
+      <c r="H2">
+        <f>'IRADe-BBIN study'!J16</f>
+        <v>19955200</v>
+      </c>
+      <c r="I2">
+        <f>'IRADe-BBIN study'!K16</f>
+        <v>23124600</v>
+      </c>
+      <c r="J2">
+        <f>'IRADe-BBIN study'!L16</f>
+        <v>26294000</v>
+      </c>
+      <c r="K2">
+        <f>'IRADe-BBIN study'!M16</f>
+        <v>26614400</v>
+      </c>
+      <c r="L2">
+        <f>'IRADe-BBIN study'!N16</f>
+        <v>26934800</v>
+      </c>
+      <c r="M2">
+        <f>'IRADe-BBIN study'!O16</f>
+        <v>27255200</v>
+      </c>
+      <c r="N2">
+        <f>'IRADe-BBIN study'!P16</f>
+        <v>27575600</v>
+      </c>
+      <c r="O2">
+        <f>'IRADe-BBIN study'!Q16</f>
+        <v>27896000</v>
+      </c>
+      <c r="P2">
+        <f>'IRADe-BBIN study'!R16</f>
+        <v>32473800</v>
+      </c>
+      <c r="Q2">
+        <f>'IRADe-BBIN study'!S16</f>
+        <v>37051600</v>
+      </c>
+      <c r="R2">
+        <f>'IRADe-BBIN study'!T16</f>
+        <v>41629400</v>
+      </c>
+      <c r="S2">
+        <f>'IRADe-BBIN study'!U16</f>
+        <v>46207200</v>
+      </c>
+      <c r="T2">
+        <f>'IRADe-BBIN study'!V16</f>
+        <v>50785000</v>
+      </c>
+      <c r="U2">
+        <f>'IRADe-BBIN study'!W16</f>
+        <v>55233000</v>
+      </c>
+      <c r="V2">
+        <f>'IRADe-BBIN study'!X16</f>
+        <v>59681000</v>
+      </c>
+      <c r="W2">
+        <f>'IRADe-BBIN study'!Y16</f>
+        <v>64129000</v>
+      </c>
+      <c r="X2">
+        <f>'IRADe-BBIN study'!Z16</f>
+        <v>68577000</v>
+      </c>
+      <c r="Y2">
+        <f>'IRADe-BBIN study'!AA16</f>
+        <v>73025000</v>
+      </c>
+      <c r="Z2">
+        <f>'IRADe-BBIN study'!AB16</f>
+        <v>79306800</v>
+      </c>
+      <c r="AA2">
+        <f>'IRADe-BBIN study'!AC16</f>
+        <v>85588600</v>
+      </c>
+      <c r="AB2">
+        <f>'IRADe-BBIN study'!AD16</f>
+        <v>91870400</v>
+      </c>
+      <c r="AC2">
+        <f>'IRADe-BBIN study'!AE16</f>
+        <v>98152200</v>
+      </c>
+      <c r="AD2">
+        <f>'IRADe-BBIN study'!AF16</f>
+        <v>104434000</v>
+      </c>
+      <c r="AE2">
+        <f>'IRADe-BBIN study'!AG16</f>
+        <v>110715800</v>
+      </c>
+      <c r="AF2">
+        <f>'IRADe-BBIN study'!AH16</f>
+        <v>116997600</v>
+      </c>
+      <c r="AG2">
+        <f>'IRADe-BBIN study'!AI16</f>
+        <v>123279400</v>
+      </c>
+      <c r="AH2">
+        <f>'IRADe-BBIN study'!AJ16</f>
+        <v>129561200</v>
+      </c>
+      <c r="AI2">
+        <f>'IRADe-BBIN study'!AK16</f>
+        <v>135843000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96515117-1B81-418D-8598-CCD62FE72CCE}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AK3"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.265625" customWidth="1"/>
+    <col min="2" max="3" width="11.265625" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1">
+        <v>119</v>
+      </c>
+      <c r="B1" s="18">
         <v>2017</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="18">
         <v>2018</v>
       </c>
       <c r="D1">
@@ -10611,148 +15100,154 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <f>'IRADe-BBIN study'!D16</f>
-        <v>7123600</v>
-      </c>
-      <c r="C2">
-        <f>'IRADe-BBIN study'!E16</f>
-        <v>8231400</v>
-      </c>
-      <c r="D2">
-        <f>'IRADe-BBIN study'!F16</f>
-        <v>9339200</v>
-      </c>
-      <c r="E2">
-        <f>'IRADe-BBIN study'!G16</f>
-        <v>10447000</v>
-      </c>
-      <c r="F2">
-        <f>'IRADe-BBIN study'!H16</f>
-        <v>13616400</v>
-      </c>
-      <c r="G2">
-        <f>'IRADe-BBIN study'!I16</f>
-        <v>16785800</v>
-      </c>
-      <c r="H2">
-        <f>'IRADe-BBIN study'!J16</f>
-        <v>19955200</v>
-      </c>
-      <c r="I2">
-        <f>'IRADe-BBIN study'!K16</f>
-        <v>23124600</v>
-      </c>
-      <c r="J2">
-        <f>'IRADe-BBIN study'!L16</f>
-        <v>26294000</v>
-      </c>
-      <c r="K2">
-        <f>'IRADe-BBIN study'!M16</f>
-        <v>26614400</v>
-      </c>
-      <c r="L2">
-        <f>'IRADe-BBIN study'!N16</f>
-        <v>26934800</v>
-      </c>
-      <c r="M2">
-        <f>'IRADe-BBIN study'!O16</f>
-        <v>27255200</v>
-      </c>
-      <c r="N2">
-        <f>'IRADe-BBIN study'!P16</f>
-        <v>27575600</v>
-      </c>
-      <c r="O2">
-        <f>'IRADe-BBIN study'!Q16</f>
-        <v>27896000</v>
-      </c>
-      <c r="P2">
-        <f>'IRADe-BBIN study'!R16</f>
-        <v>32473800</v>
-      </c>
-      <c r="Q2">
-        <f>'IRADe-BBIN study'!S16</f>
-        <v>37051600</v>
-      </c>
-      <c r="R2">
-        <f>'IRADe-BBIN study'!T16</f>
-        <v>41629400</v>
-      </c>
-      <c r="S2">
-        <f>'IRADe-BBIN study'!U16</f>
-        <v>46207200</v>
-      </c>
-      <c r="T2">
-        <f>'IRADe-BBIN study'!V16</f>
-        <v>50785000</v>
-      </c>
-      <c r="U2">
-        <f>'IRADe-BBIN study'!W16</f>
-        <v>55233000</v>
-      </c>
-      <c r="V2">
-        <f>'IRADe-BBIN study'!X16</f>
-        <v>59681000</v>
-      </c>
-      <c r="W2">
-        <f>'IRADe-BBIN study'!Y16</f>
-        <v>64129000</v>
-      </c>
-      <c r="X2">
-        <f>'IRADe-BBIN study'!Z16</f>
-        <v>68577000</v>
-      </c>
-      <c r="Y2">
-        <f>'IRADe-BBIN study'!AA16</f>
-        <v>73025000</v>
-      </c>
-      <c r="Z2">
-        <f>'IRADe-BBIN study'!AB16</f>
-        <v>79306800</v>
-      </c>
-      <c r="AA2">
-        <f>'IRADe-BBIN study'!AC16</f>
-        <v>85588600</v>
-      </c>
-      <c r="AB2">
-        <f>'IRADe-BBIN study'!AD16</f>
-        <v>91870400</v>
-      </c>
-      <c r="AC2">
-        <f>'IRADe-BBIN study'!AE16</f>
-        <v>98152200</v>
-      </c>
-      <c r="AD2">
-        <f>'IRADe-BBIN study'!AF16</f>
-        <v>104434000</v>
-      </c>
-      <c r="AE2">
-        <f>'IRADe-BBIN study'!AG16</f>
-        <v>110715800</v>
-      </c>
-      <c r="AF2">
-        <f>'IRADe-BBIN study'!AH16</f>
-        <v>116997600</v>
-      </c>
-      <c r="AG2">
-        <f>'IRADe-BBIN study'!AI16</f>
-        <v>123279400</v>
-      </c>
-      <c r="AH2">
-        <f>'IRADe-BBIN study'!AJ16</f>
-        <v>129561200</v>
-      </c>
-      <c r="AI2">
-        <f>'IRADe-BBIN study'!AK16</f>
-        <v>135843000</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="C2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="D2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="E2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="F2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="G2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="H2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="I2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="J2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="K2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="L2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="M2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="N2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="O2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="P2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="Q2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="R2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="S2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="T2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="U2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="V2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="W2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="X2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="Y2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="Z2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AA2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AB2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AC2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AD2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AE2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AF2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AG2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AH2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AI2" s="59">
+        <f>Electricity!$K$13</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="AJ2" s="38"/>
+      <c r="AK2" s="38"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="D3" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/EIaE/Elec Imports and Exports.xlsx
+++ b/InputData/elec/EIaE/Elec Imports and Exports.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\elec\EIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55159E5-06B0-45B1-8FAB-2EF51714B37B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C5AAAE-7351-4852-AE42-87A77D577A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="0" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="435" windowWidth="27210" windowHeight="14775" firstSheet="3" activeTab="4" xr2:uid="{C387D1BA-BE84-4B5E-81B6-C1B4464792DE}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data from 1.4.3" sheetId="9" r:id="rId2"/>
     <sheet name="Comparisons" sheetId="10" r:id="rId3"/>
     <sheet name="IRADe-BBIN study" sheetId="11" r:id="rId4"/>
-    <sheet name="Conversion Factors" sheetId="14" r:id="rId5"/>
-    <sheet name="Electricity" sheetId="15" r:id="rId6"/>
+    <sheet name="Electricity" sheetId="15" r:id="rId5"/>
+    <sheet name="Conversion Factors" sheetId="14" r:id="rId6"/>
     <sheet name="EIaE-BIE" sheetId="3" r:id="rId7"/>
     <sheet name="EIaE-BEE" sheetId="5" r:id="rId8"/>
     <sheet name="EIaE-IEP" sheetId="12" r:id="rId9"/>
@@ -34,11 +34,11 @@
     <definedName name="BTU_per_kWh">[1]About!$A$163</definedName>
     <definedName name="gal_per_barrel">[2]About!$A$40</definedName>
     <definedName name="HHV_Adjust">[1]About!$A$160</definedName>
+    <definedName name="lignite_multiplier" localSheetId="5">#REF!</definedName>
     <definedName name="lignite_multiplier" localSheetId="4">#REF!</definedName>
-    <definedName name="lignite_multiplier" localSheetId="5">#REF!</definedName>
     <definedName name="lignite_multiplier">'[3]Hard Coal and Lig Multipliers'!$N$16</definedName>
+    <definedName name="nonlignite_multiplier" localSheetId="5">#REF!</definedName>
     <definedName name="nonlignite_multiplier" localSheetId="4">#REF!</definedName>
-    <definedName name="nonlignite_multiplier" localSheetId="5">#REF!</definedName>
     <definedName name="nonlignite_multiplier">'[3]Hard Coal and Lig Multipliers'!$N$17</definedName>
     <definedName name="tax_fuel_labels">'[4]Tax_Share of Price'!$A$2:$A$22</definedName>
     <definedName name="Tax_share">'[4]Tax_Share of Price'!$B$2:$AI$22</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="234">
   <si>
     <t>EIaE BAU Imported Electricity</t>
   </si>
@@ -680,9 +680,6 @@
     <t>litre/gal</t>
   </si>
   <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>CONSUMER CATEGORYWISE AVERAGE TARIFF, A.P 2013-14 (All India Average)</t>
   </si>
   <si>
@@ -738,9 +735,6 @@
     <t>Data for v3.0</t>
   </si>
   <si>
-    <t>Electricity Price</t>
-  </si>
-  <si>
     <t>Planning Commission, Government of India</t>
   </si>
   <si>
@@ -763,16 +757,104 @@
   </si>
   <si>
     <t>EIaE BAU Exported Electricity Price</t>
+  </si>
+  <si>
+    <t>Electricity - Consumer Price</t>
+  </si>
+  <si>
+    <t>Electricity - Import Price</t>
+  </si>
+  <si>
+    <t>Electricity - Export Price</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>$/kwh</t>
+  </si>
+  <si>
+    <t>Source: "Gains from Multilateral Electricity Trade among BBIN Countries"</t>
+  </si>
+  <si>
+    <t>Electricity Price, Domestic</t>
+  </si>
+  <si>
+    <t>Electricity Price - Imports</t>
+  </si>
+  <si>
+    <t>Integrated Research and Action for Development</t>
+  </si>
+  <si>
+    <t>"Gains from Multilateral Electricity Trade among BBIN Countries"</t>
+  </si>
+  <si>
+    <t>https://sari-energy.org/wp-content/uploads/2018/09/Gains-from-Multilateral-Electricity-Trade-among-BBIN-Country.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg 6. </t>
+  </si>
+  <si>
+    <t>Electricity Price - Exports</t>
+  </si>
+  <si>
+    <t>Spotlight Nepal</t>
+  </si>
+  <si>
+    <t>"Nepal-India PPA: Power Need and a Price"</t>
+  </si>
+  <si>
+    <t>"Short-term Inter-State Transactions of Electricity by Trading Licensees"</t>
+  </si>
+  <si>
+    <t>Form IV-D – Long-term transactions, page 4, cross-border transactions</t>
+  </si>
+  <si>
+    <t>RS/kwh - 2018</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Weighted average price (RS/kwh)</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>$/MWH</t>
+  </si>
+  <si>
+    <t>2012 USD $/MWH</t>
+  </si>
+  <si>
+    <t>Total Export Volume</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Weighted average price of exported electricity (2015-2045 export volumes)</t>
+  </si>
+  <si>
+    <t>Weighted average price (RS/MWH)</t>
+  </si>
+  <si>
+    <t>Weighted average price (2012 USD $/MWH)</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1107,7 +1189,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1217,6 +1299,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5168,6 +5255,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34903</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFAFC8F-B3C2-488D-9EF4-044D2FAA8822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="4495800"/>
+          <a:ext cx="8616928" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -8088,249 +8224,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.73046875" customWidth="1"/>
-    <col min="6" max="6" width="73.3984375" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="14" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="63">
+        <v>43191</v>
+      </c>
+      <c r="D24" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="14" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="57" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="43"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="43"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="43"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="43"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{A7B237D3-DE0F-463C-AB5E-18E3F8C336D3}"/>
-    <hyperlink ref="F10" r:id="rId4" xr:uid="{2752871D-DFCD-4735-9E0C-D6B62EA7A9AA}"/>
-    <hyperlink ref="F18" r:id="rId5" xr:uid="{F9B84DFD-52C2-46E9-B423-5B8C64D36D67}"/>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D32" r:id="rId3" xr:uid="{A7B237D3-DE0F-463C-AB5E-18E3F8C336D3}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{2752871D-DFCD-4735-9E0C-D6B62EA7A9AA}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{F9B84DFD-52C2-46E9-B423-5B8C64D36D67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -8345,16 +8586,16 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.265625" customWidth="1"/>
-    <col min="2" max="3" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>119</v>
       </c>
@@ -8461,145 +8702,145 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
       <c r="B2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="C2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="D2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="E2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="F2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="G2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="H2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="I2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="J2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="K2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="L2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="M2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="N2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="O2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="P2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="Q2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="R2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="S2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="T2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="U2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="V2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="W2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="X2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="Y2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="Z2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AA2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AB2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AC2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AD2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AE2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AF2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AG2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AH2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AI2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$41</f>
+        <v>52.399191950656721</v>
       </c>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
@@ -8614,18 +8855,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -8639,32 +8878,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -8673,7 +8912,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -8682,7 +8921,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -8691,7 +8930,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -8700,7 +8939,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8709,7 +8948,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -8726,7 +8965,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -8743,12 +8982,12 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>32</v>
       </c>
@@ -8756,7 +8995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2006</v>
       </c>
@@ -8767,7 +9006,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2007</v>
       </c>
@@ -8778,7 +9017,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -8789,7 +9028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -8800,7 +9039,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -8811,7 +9050,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2011</v>
       </c>
@@ -8822,7 +9061,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2012</v>
       </c>
@@ -8833,7 +9072,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -8844,7 +9083,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -8855,7 +9094,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2015</v>
       </c>
@@ -8866,7 +9105,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2006</v>
       </c>
@@ -8901,7 +9140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>35</v>
       </c>
@@ -8943,7 +9182,7 @@
         <v>1.77341900574907</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
@@ -8986,17 +9225,17 @@
         <v>23.842592592592592</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>29</v>
       </c>
@@ -9010,7 +9249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -9037,7 +9276,7 @@
         <v>16.276041375755312</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
@@ -9056,7 +9295,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>44</v>
       </c>
@@ -9079,7 +9318,7 @@
         <v>4.5175438596491224</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2006</v>
       </c>
@@ -9165,7 +9404,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>29</v>
       </c>
@@ -9270,7 +9509,7 @@
         <v>11902.336954428567</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>30</v>
       </c>
@@ -9375,12 +9614,12 @@
         <v>80418.731631301926</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -9400,23 +9639,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2E8E20-6E09-405A-8694-07914D55502A}">
   <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2017</v>
       </c>
@@ -9520,7 +9757,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -9661,7 +9898,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -9802,7 +10039,7 @@
         <v>135843000</v>
       </c>
     </row>
-    <row r="23" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:55" x14ac:dyDescent="0.25">
       <c r="Q23" s="16">
         <v>2017</v>
       </c>
@@ -9828,7 +10065,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:55" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>66</v>
       </c>
@@ -9861,7 +10098,7 @@
         <v>7.4301173220855166</v>
       </c>
     </row>
-    <row r="25" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:55" x14ac:dyDescent="0.25">
       <c r="P25" t="s">
         <v>62</v>
       </c>
@@ -9891,12 +10128,12 @@
         <v>4.0012955326567123</v>
       </c>
     </row>
-    <row r="27" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:55" x14ac:dyDescent="0.25">
       <c r="J27" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:55" x14ac:dyDescent="0.25">
       <c r="K28">
         <v>2006</v>
       </c>
@@ -10033,7 +10270,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:55" x14ac:dyDescent="0.25">
       <c r="J29" s="7" t="s">
         <v>29</v>
       </c>
@@ -10206,7 +10443,7 @@
         <v>59731.018369680831</v>
       </c>
     </row>
-    <row r="30" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:55" x14ac:dyDescent="0.25">
       <c r="J30" s="7" t="s">
         <v>30</v>
       </c>
@@ -10379,7 +10616,7 @@
         <v>26290.094148363216</v>
       </c>
     </row>
-    <row r="32" spans="2:55" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2017</v>
       </c>
@@ -10483,7 +10720,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -10624,7 +10861,7 @@
         <v>59731018.369680829</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -10765,12 +11002,12 @@
         <v>26290094.148363218</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -10911,7 +11148,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -11063,15 +11300,15 @@
   <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
@@ -11080,7 +11317,7 @@
     <col min="32" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>85</v>
       </c>
@@ -11091,7 +11328,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
         <v>86</v>
       </c>
@@ -11109,7 +11346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
@@ -11134,7 +11371,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2015</v>
       </c>
@@ -11165,7 +11402,7 @@
         <v>4908000</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2020</v>
       </c>
@@ -11196,7 +11433,7 @@
         <v>10447000</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2025</v>
       </c>
@@ -11227,7 +11464,7 @@
         <v>26294000</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2030</v>
       </c>
@@ -11258,7 +11495,7 @@
         <v>27896000</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2035</v>
       </c>
@@ -11289,7 +11526,7 @@
         <v>50785000</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2040</v>
       </c>
@@ -11320,7 +11557,7 @@
         <v>73025000</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2045</v>
       </c>
@@ -11351,7 +11588,7 @@
         <v>104434000</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>92</v>
       </c>
@@ -11374,12 +11611,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -11492,7 +11729,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -11641,7 +11878,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -11790,12 +12027,12 @@
         <v>135843000</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>109</v>
       </c>
@@ -11811,22 +12048,568 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7278A2E2-B123-4EA8-8AA3-AF7F90EC5587}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>479.84</v>
+      </c>
+      <c r="B4">
+        <v>625.89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="53">
+        <v>407.84</v>
+      </c>
+      <c r="F4" s="53">
+        <v>764</v>
+      </c>
+      <c r="G4" s="53">
+        <v>183.06</v>
+      </c>
+      <c r="H4" s="53">
+        <v>625.89</v>
+      </c>
+      <c r="I4" s="53">
+        <v>663.85</v>
+      </c>
+      <c r="J4" s="53">
+        <v>325.01</v>
+      </c>
+      <c r="K4" s="53">
+        <v>479.84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4/100</f>
+        <v>4.7984</v>
+      </c>
+      <c r="B5">
+        <f>B4/100</f>
+        <v>6.2588999999999997</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="53">
+        <f>E4/100</f>
+        <v>4.0783999999999994</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" ref="F5:K5" si="0">F4/100</f>
+        <v>7.64</v>
+      </c>
+      <c r="G5" s="53">
+        <f t="shared" si="0"/>
+        <v>1.8306</v>
+      </c>
+      <c r="H5" s="53">
+        <f t="shared" si="0"/>
+        <v>6.2588999999999997</v>
+      </c>
+      <c r="I5" s="53">
+        <f t="shared" si="0"/>
+        <v>6.6385000000000005</v>
+      </c>
+      <c r="J5" s="53">
+        <f t="shared" si="0"/>
+        <v>3.2500999999999998</v>
+      </c>
+      <c r="K5" s="53">
+        <f t="shared" si="0"/>
+        <v>4.7984</v>
+      </c>
+      <c r="L5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
+        <f>A5/'Conversion Factors'!$B$27</f>
+        <v>1.4062728961883159E-3</v>
+      </c>
+      <c r="B6" s="54">
+        <f>B5/'Conversion Factors'!$B$27</f>
+        <v>1.8343033990398988E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="55">
+        <f>E5/'Conversion Factors'!$B$27</f>
+        <v>1.1952616246695622E-3</v>
+      </c>
+      <c r="F6" s="55">
+        <f>F5/'Conversion Factors'!$B$27</f>
+        <v>2.23906404778233E-3</v>
+      </c>
+      <c r="G6" s="55">
+        <f>G5/'Conversion Factors'!$B$27</f>
+        <v>5.3649615783643112E-4</v>
+      </c>
+      <c r="H6" s="55">
+        <f>H5/'Conversion Factors'!$B$27</f>
+        <v>1.8343033990398988E-3</v>
+      </c>
+      <c r="I6" s="55">
+        <f>I5/'Conversion Factors'!$B$27</f>
+        <v>1.9455532305239528E-3</v>
+      </c>
+      <c r="J6" s="55">
+        <f>J5/'Conversion Factors'!$B$27</f>
+        <v>9.5251074105986273E-4</v>
+      </c>
+      <c r="K6" s="55">
+        <f>K5/'Conversion Factors'!$B$27</f>
+        <v>1.4062728961883159E-3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
+        <f>A6/'Conversion Factors'!$C$8</f>
+        <v>1.2172886189797574E-3</v>
+      </c>
+      <c r="B7" s="54">
+        <f>B6/'Conversion Factors'!$C$8</f>
+        <v>1.5877975444590702E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="55">
+        <f>E6/'Conversion Factors'!$C$8</f>
+        <v>1.0346344414069359E-3</v>
+      </c>
+      <c r="F7" s="55">
+        <f>F6/'Conversion Factors'!$C$8</f>
+        <v>1.9381637731338247E-3</v>
+      </c>
+      <c r="G7" s="55">
+        <f>G6/'Conversion Factors'!$C$8</f>
+        <v>4.6439824647889787E-4</v>
+      </c>
+      <c r="H7" s="55">
+        <f>H6/'Conversion Factors'!$C$8</f>
+        <v>1.5877975444590702E-3</v>
+      </c>
+      <c r="I7" s="55">
+        <f>I6/'Conversion Factors'!$C$8</f>
+        <v>1.6840968858571855E-3</v>
+      </c>
+      <c r="J7" s="55">
+        <f>J6/'Conversion Factors'!$C$8</f>
+        <v>8.2450603129086966E-4</v>
+      </c>
+      <c r="K7" s="55">
+        <f>K6/'Conversion Factors'!$C$8</f>
+        <v>1.2172886189797574E-3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
+        <f>A7/'Conversion Factors'!$B$19</f>
+        <v>1.9221358265904903E-5</v>
+      </c>
+      <c r="B8" s="54">
+        <f>B7/'Conversion Factors'!$B$19</f>
+        <v>2.5071807112885997E-5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="55">
+        <f>E7/'Conversion Factors'!$B$19</f>
+        <v>1.6337193137643075E-5</v>
+      </c>
+      <c r="F8" s="55">
+        <f>F7/'Conversion Factors'!$B$19</f>
+        <v>3.0604196638778218E-5</v>
+      </c>
+      <c r="G8" s="55">
+        <f>G7/'Conversion Factors'!$B$19</f>
+        <v>7.3329898386056825E-6</v>
+      </c>
+      <c r="H8" s="55">
+        <f>H7/'Conversion Factors'!$B$19</f>
+        <v>2.5071807112885997E-5</v>
+      </c>
+      <c r="I8" s="55">
+        <f>I7/'Conversion Factors'!$B$19</f>
+        <v>2.659240306106404E-5</v>
+      </c>
+      <c r="J8" s="55">
+        <f>J7/'Conversion Factors'!$B$19</f>
+        <v>1.3019201504671873E-5</v>
+      </c>
+      <c r="K8" s="55">
+        <f>K7/'Conversion Factors'!$B$19</f>
+        <v>1.9221358265904903E-5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="K10" s="47"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K13" s="58">
+        <f>K8*(1/'Conversion Factors'!B28)</f>
+        <v>65.586012488116893</v>
+      </c>
+      <c r="L13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15">
+        <v>2015</v>
+      </c>
+      <c r="E15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16">
+        <f>B15*1000</f>
+        <v>2070</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="58">
+        <f>(B16/'Conversion Factors'!B20)*'Conversion Factors'!F9</f>
+        <v>30.234783665917437</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2.5392999999999999</v>
+      </c>
+      <c r="D23">
+        <v>149.22200000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>6.1104000000000003</v>
+      </c>
+      <c r="D24">
+        <v>63.651000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4.2679999999999998</v>
+      </c>
+      <c r="D25">
+        <v>176.55600000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="39">
+        <f>(D23/$D$26)*B23+(D24/D26)*B24+(D25/D26)*B25</f>
+        <v>3.9067288337540349</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D23:D25)</f>
+        <v>389.42900000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="64">
+        <f>B26*1000</f>
+        <v>3906.7288337540349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" s="65">
+        <f>(B27/'Conversion Factors'!B23)*'Conversion Factors'!F12</f>
+        <v>52.024891563838629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31">
+        <v>5.76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32">
+        <f>B31*1000</f>
+        <v>5760</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="65">
+        <f>(B32/'Conversion Factors'!B23)*'Conversion Factors'!F12</f>
+        <v>76.704421565844754</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33">
+        <v>2012</v>
+      </c>
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
+        <f>SUM('IRADe-BBIN study'!B4:B10)</f>
+        <v>293117</v>
+      </c>
+      <c r="B38" s="64">
+        <f>SUM('IRADe-BBIN study'!D4:D10)</f>
+        <v>4514</v>
+      </c>
+      <c r="C38" s="64">
+        <f>SUM(A38:B38)</f>
+        <v>297631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <f>A38/$C$38</f>
+        <v>0.98483356908386555</v>
+      </c>
+      <c r="B39" s="10">
+        <f>B38/$C$38</f>
+        <v>1.5166430916134408E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" s="58">
+        <f>B28*A39+B33*B39</f>
+        <v>52.399191950656721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1905A6A-4F51-49E2-B816-CC1198AEF2C0}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="21.265625" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" customWidth="1"/>
-    <col min="5" max="5" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>122</v>
       </c>
@@ -11845,7 +12628,7 @@
       <c r="M1" s="36"/>
       <c r="N1" s="36"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>124</v>
       </c>
@@ -11857,7 +12640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>88</v>
       </c>
@@ -11874,7 +12657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -11891,7 +12674,7 @@
         <v>1.0529130131709286</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -11908,7 +12691,7 @@
         <v>1.0206944993976144</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -11925,7 +12708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -11942,7 +12725,7 @@
         <v>0.98556385942470071</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -11959,7 +12742,7 @@
         <v>0.96983137334414704</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -11976,7 +12759,7 @@
         <v>0.9686815713640794</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -11993,7 +12776,7 @@
         <v>0.95661376543184151</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -12010,7 +12793,7 @@
         <v>0.93665959530026111</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -12028,7 +12811,7 @@
         <v>0.9143273584567535</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -12040,7 +12823,7 @@
         <v>1.4795782134679836</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -12048,7 +12831,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -12056,7 +12839,7 @@
         <v>44.81</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -12064,7 +12847,7 @@
         <v>53.26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -12072,7 +12855,7 @@
         <v>54.77</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -12080,7 +12863,7 @@
         <v>61.89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2014</v>
       </c>
@@ -12088,7 +12871,7 @@
         <v>63.33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -12096,7 +12879,7 @@
         <v>66.319999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -12104,7 +12887,7 @@
         <v>67.95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -12112,7 +12895,7 @@
         <v>63.92</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -12120,14 +12903,14 @@
         <v>68.66</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>140</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="41"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -12135,7 +12918,7 @@
         <v>158.9873</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -12143,7 +12926,7 @@
         <v>3.9656699999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>143</v>
       </c>
@@ -12151,22 +12934,22 @@
         <v>3412.14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B28" s="47">
         <v>2.9307099999999999E-7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>144</v>
       </c>
       <c r="B30" s="41"/>
       <c r="C30" s="41"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -12178,7 +12961,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -12190,7 +12973,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -12202,7 +12985,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="43">
         <v>3.9656699999999998</v>
       </c>
@@ -12210,7 +12993,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="46">
         <f>B33*B34</f>
         <v>12670.315649999999</v>
@@ -12219,7 +13002,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" s="47">
         <f>B35*1000</f>
         <v>12670315.649999999</v>
@@ -12228,14 +13011,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>151</v>
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>5670000</v>
       </c>
@@ -12243,7 +13026,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="46">
         <f>B39/B25</f>
         <v>35663.225930624649</v>
@@ -12252,14 +13035,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>154</v>
       </c>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>10700</v>
       </c>
@@ -12267,7 +13050,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>8.5299999999999994</v>
       </c>
@@ -12275,7 +13058,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="47">
         <f>B43*1000/B44</f>
         <v>1254396.248534584</v>
@@ -12284,7 +13067,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="47">
         <f>B45*B26</f>
         <v>4974521.5709261429</v>
@@ -12293,7 +13076,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="47">
         <f>B46/B25</f>
         <v>31288.798356385338</v>
@@ -12302,14 +13085,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
         <v>157</v>
       </c>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>5.8170000000000002</v>
       </c>
@@ -12317,7 +13100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51">
         <f>B50/B25</f>
         <v>3.6587828084381581E-2</v>
@@ -12326,7 +13109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="47">
         <f>B51*10^6</f>
         <v>36587.828084381581</v>
@@ -12335,17 +13118,17 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="47"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>161</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="41"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>14.2</v>
       </c>
@@ -12353,7 +13136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>11300</v>
       </c>
@@ -12361,7 +13144,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57">
         <f>B55*B56</f>
         <v>160460</v>
@@ -12370,7 +13153,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="47">
         <f>B57*B26</f>
         <v>636331.40819999995</v>
@@ -12379,14 +13162,14 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>165</v>
       </c>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>36</v>
       </c>
@@ -12394,7 +13177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62">
         <f>B61*10^6</f>
         <v>36000000</v>
@@ -12403,14 +13186,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
         <v>168</v>
       </c>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>6500</v>
       </c>
@@ -12418,7 +13201,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>B26*B65</f>
         <v>25776.855</v>
@@ -12427,7 +13210,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>B66*1000</f>
         <v>25776855</v>
@@ -12436,14 +13219,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
         <v>169</v>
       </c>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5.8</v>
       </c>
@@ -12451,7 +13234,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71">
         <f>B70*10^6</f>
         <v>5800000</v>
@@ -12460,14 +13243,14 @@
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -12481,7 +13264,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>176</v>
       </c>
@@ -12492,7 +13275,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>177</v>
       </c>
@@ -12504,7 +13287,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>3.7854100000000002</v>
       </c>
@@ -12512,319 +13295,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="46">
         <f>B76/B77</f>
         <v>21247.36818468805</v>
       </c>
       <c r="C78" t="s">
         <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7278A2E2-B123-4EA8-8AA3-AF7F90EC5587}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="F3" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>479.84</v>
-      </c>
-      <c r="B4">
-        <v>625.89</v>
-      </c>
-      <c r="C4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="53">
-        <v>407.84</v>
-      </c>
-      <c r="F4" s="53">
-        <v>764</v>
-      </c>
-      <c r="G4" s="53">
-        <v>183.06</v>
-      </c>
-      <c r="H4" s="53">
-        <v>625.89</v>
-      </c>
-      <c r="I4" s="53">
-        <v>663.85</v>
-      </c>
-      <c r="J4" s="53">
-        <v>325.01</v>
-      </c>
-      <c r="K4" s="53">
-        <v>479.84</v>
-      </c>
-      <c r="L4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <f>A4/100</f>
-        <v>4.7984</v>
-      </c>
-      <c r="B5">
-        <f>B4/100</f>
-        <v>6.2588999999999997</v>
-      </c>
-      <c r="C5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="53">
-        <f>E4/100</f>
-        <v>4.0783999999999994</v>
-      </c>
-      <c r="F5" s="53">
-        <f t="shared" ref="F5:K5" si="0">F4/100</f>
-        <v>7.64</v>
-      </c>
-      <c r="G5" s="53">
-        <f t="shared" si="0"/>
-        <v>1.8306</v>
-      </c>
-      <c r="H5" s="53">
-        <f t="shared" si="0"/>
-        <v>6.2588999999999997</v>
-      </c>
-      <c r="I5" s="53">
-        <f t="shared" si="0"/>
-        <v>6.6385000000000005</v>
-      </c>
-      <c r="J5" s="53">
-        <f t="shared" si="0"/>
-        <v>3.2500999999999998</v>
-      </c>
-      <c r="K5" s="53">
-        <f t="shared" si="0"/>
-        <v>4.7984</v>
-      </c>
-      <c r="L5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="54">
-        <f>A5/'Conversion Factors'!$B$27</f>
-        <v>1.4062728961883159E-3</v>
-      </c>
-      <c r="B6" s="54">
-        <f>B5/'Conversion Factors'!$B$27</f>
-        <v>1.8343033990398988E-3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="55">
-        <f>E5/'Conversion Factors'!$B$27</f>
-        <v>1.1952616246695622E-3</v>
-      </c>
-      <c r="F6" s="55">
-        <f>F5/'Conversion Factors'!$B$27</f>
-        <v>2.23906404778233E-3</v>
-      </c>
-      <c r="G6" s="55">
-        <f>G5/'Conversion Factors'!$B$27</f>
-        <v>5.3649615783643112E-4</v>
-      </c>
-      <c r="H6" s="55">
-        <f>H5/'Conversion Factors'!$B$27</f>
-        <v>1.8343033990398988E-3</v>
-      </c>
-      <c r="I6" s="55">
-        <f>I5/'Conversion Factors'!$B$27</f>
-        <v>1.9455532305239528E-3</v>
-      </c>
-      <c r="J6" s="55">
-        <f>J5/'Conversion Factors'!$B$27</f>
-        <v>9.5251074105986273E-4</v>
-      </c>
-      <c r="K6" s="55">
-        <f>K5/'Conversion Factors'!$B$27</f>
-        <v>1.4062728961883159E-3</v>
-      </c>
-      <c r="L6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="54">
-        <f>A6/'Conversion Factors'!$C$8</f>
-        <v>1.2172886189797574E-3</v>
-      </c>
-      <c r="B7" s="54">
-        <f>B6/'Conversion Factors'!$C$8</f>
-        <v>1.5877975444590702E-3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="55">
-        <f>E6/'Conversion Factors'!$C$8</f>
-        <v>1.0346344414069359E-3</v>
-      </c>
-      <c r="F7" s="55">
-        <f>F6/'Conversion Factors'!$C$8</f>
-        <v>1.9381637731338247E-3</v>
-      </c>
-      <c r="G7" s="55">
-        <f>G6/'Conversion Factors'!$C$8</f>
-        <v>4.6439824647889787E-4</v>
-      </c>
-      <c r="H7" s="55">
-        <f>H6/'Conversion Factors'!$C$8</f>
-        <v>1.5877975444590702E-3</v>
-      </c>
-      <c r="I7" s="55">
-        <f>I6/'Conversion Factors'!$C$8</f>
-        <v>1.6840968858571855E-3</v>
-      </c>
-      <c r="J7" s="55">
-        <f>J6/'Conversion Factors'!$C$8</f>
-        <v>8.2450603129086966E-4</v>
-      </c>
-      <c r="K7" s="55">
-        <f>K6/'Conversion Factors'!$C$8</f>
-        <v>1.2172886189797574E-3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="54">
-        <f>A7/'Conversion Factors'!$B$19</f>
-        <v>1.9221358265904903E-5</v>
-      </c>
-      <c r="B8" s="54">
-        <f>B7/'Conversion Factors'!$B$19</f>
-        <v>2.5071807112885997E-5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="55">
-        <f>E7/'Conversion Factors'!$B$19</f>
-        <v>1.6337193137643075E-5</v>
-      </c>
-      <c r="F8" s="55">
-        <f>F7/'Conversion Factors'!$B$19</f>
-        <v>3.0604196638778218E-5</v>
-      </c>
-      <c r="G8" s="55">
-        <f>G7/'Conversion Factors'!$B$19</f>
-        <v>7.3329898386056825E-6</v>
-      </c>
-      <c r="H8" s="55">
-        <f>H7/'Conversion Factors'!$B$19</f>
-        <v>2.5071807112885997E-5</v>
-      </c>
-      <c r="I8" s="55">
-        <f>I7/'Conversion Factors'!$B$19</f>
-        <v>2.659240306106404E-5</v>
-      </c>
-      <c r="J8" s="55">
-        <f>J7/'Conversion Factors'!$B$19</f>
-        <v>1.3019201504671873E-5</v>
-      </c>
-      <c r="K8" s="55">
-        <f>K7/'Conversion Factors'!$B$19</f>
-        <v>1.9221358265904903E-5</v>
-      </c>
-      <c r="L8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E10" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E11" s="56" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="K12" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="K13" s="58">
-        <f>K8*(1/'Conversion Factors'!B28)</f>
-        <v>65.586012488116893</v>
-      </c>
-      <c r="L13" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -12840,15 +13317,15 @@
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>71</v>
       </c>
@@ -12955,7 +13432,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -13062,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -13169,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
@@ -13276,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
@@ -13417,7 +13894,7 @@
         <v>254063000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -13524,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
@@ -13631,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
@@ -13738,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -13845,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -13952,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
@@ -14059,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -14166,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>15</v>
       </c>
@@ -14273,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>16</v>
       </c>
@@ -14380,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -14487,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -14594,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
@@ -14713,16 +15190,14 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>75</v>
       </c>
@@ -14829,7 +15304,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -14982,18 +15457,18 @@
   </sheetPr>
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.265625" customWidth="1"/>
-    <col min="2" max="3" width="11.265625" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>119</v>
       </c>
@@ -15100,150 +15575,150 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="C2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="D2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="E2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="F2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="G2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="H2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="I2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="J2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="K2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="L2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="M2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="N2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="O2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="P2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="Q2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="R2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="S2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="T2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="U2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="V2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="W2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="X2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="Y2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="Z2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AA2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AB2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AC2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AD2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AE2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AF2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AG2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AH2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AI2" s="59">
-        <f>Electricity!$K$13</f>
-        <v>65.586012488116893</v>
+        <f>Electricity!$B$17</f>
+        <v>30.234783665917437</v>
       </c>
       <c r="AJ2" s="38"/>
       <c r="AK2" s="38"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="D3" s="39"/>
     </row>
   </sheetData>
